--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.165343450893545</v>
+        <v>2.165343450893488</v>
       </c>
       <c r="C2">
-        <v>0.4836477473159277</v>
+        <v>0.4836477473174909</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2295807443713329</v>
+        <v>0.2295807443714111</v>
       </c>
       <c r="F2">
-        <v>6.664959736421764</v>
+        <v>6.664959736421793</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.783050141148038</v>
+        <v>2.783050141147967</v>
       </c>
       <c r="J2">
-        <v>0.5903008139098631</v>
+        <v>0.5903008139099128</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2123827862312702</v>
+        <v>0.2123827862313235</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.852492327594035</v>
+        <v>1.852492327593978</v>
       </c>
       <c r="C3">
-        <v>0.4110746201695861</v>
+        <v>0.4110746201694724</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1945571536390212</v>
+        <v>0.1945571536390425</v>
       </c>
       <c r="F3">
         <v>5.732351035346142</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.408043959349797</v>
+        <v>2.408043959349683</v>
       </c>
       <c r="J3">
-        <v>0.5038499866641502</v>
+        <v>0.5038499866640791</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1729518264670347</v>
+        <v>0.172951826467056</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.666276098343644</v>
+        <v>1.666276098343502</v>
       </c>
       <c r="C4">
-        <v>0.3679993072351238</v>
+        <v>0.3679993072349532</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1740632996723406</v>
+        <v>0.1740632996722908</v>
       </c>
       <c r="F4">
-        <v>5.177880687353451</v>
+        <v>5.177880687353479</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.185511991074534</v>
+        <v>2.185511991074478</v>
       </c>
       <c r="J4">
-        <v>0.4524268304819614</v>
+        <v>0.4524268304819259</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1505195756417734</v>
+        <v>0.1505195756418054</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.591638066055793</v>
+        <v>1.591638066055708</v>
       </c>
       <c r="C5">
         <v>0.3507556329451518</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1659184404102909</v>
+        <v>0.1659184404104863</v>
       </c>
       <c r="F5">
         <v>4.955686602897686</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.096409635408477</v>
+        <v>2.096409635408449</v>
       </c>
       <c r="J5">
-        <v>0.4318217632509729</v>
+        <v>0.4318217632509658</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1417500383829413</v>
+        <v>0.1417500383829697</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.579313592277742</v>
+        <v>1.579313592277714</v>
       </c>
       <c r="C6">
-        <v>0.3479093573038767</v>
+        <v>0.3479093573039904</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1645772147507643</v>
+        <v>0.1645772147507429</v>
       </c>
       <c r="F6">
-        <v>4.918996914342358</v>
+        <v>4.918996914342273</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.081700194722742</v>
+        <v>2.0817001947227</v>
       </c>
       <c r="J6">
-        <v>0.4284196835155072</v>
+        <v>0.4284196835154503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1403143379763279</v>
+        <v>0.1403143379763883</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.665264739328364</v>
+        <v>1.665264739328336</v>
       </c>
       <c r="C7">
-        <v>0.3677655759456684</v>
+        <v>0.3677655759454694</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1739526764854737</v>
+        <v>0.1739526764856407</v>
       </c>
       <c r="F7">
-        <v>5.17486987183662</v>
+        <v>5.174869871836734</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.18430436204774</v>
+        <v>2.184304362047783</v>
       </c>
       <c r="J7">
-        <v>0.4521476066345187</v>
+        <v>0.4521476066346253</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1503998922351784</v>
+        <v>0.1503998922351641</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.056103651368176</v>
+        <v>2.056103651368517</v>
       </c>
       <c r="C8">
-        <v>0.4582751462440626</v>
+        <v>0.4582751462436363</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2172636517544859</v>
+        <v>0.2172636517545712</v>
       </c>
       <c r="F8">
         <v>6.339102445096756</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.651910048606155</v>
+        <v>2.651910048606169</v>
       </c>
       <c r="J8">
-        <v>0.560105340160689</v>
+        <v>0.5601053401606535</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.198368388629909</v>
+        <v>0.1983683886299339</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.881590746418283</v>
+        <v>2.881590746418055</v>
       </c>
       <c r="C9">
-        <v>0.6509965672560156</v>
+        <v>0.6509965672545093</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3128699294088264</v>
+        <v>0.3128699294088548</v>
       </c>
       <c r="F9">
-        <v>8.810472238202124</v>
+        <v>8.810472238202067</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>3.649982893792938</v>
       </c>
       <c r="J9">
-        <v>0.7885619404202373</v>
+        <v>0.7885619404202515</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3107650192581772</v>
+        <v>0.3107650192581808</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>3.545577682566943</v>
       </c>
       <c r="C10">
-        <v>0.8079100128034895</v>
+        <v>0.8079100128029495</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3944264065874989</v>
+        <v>0.3944264065874705</v>
       </c>
       <c r="F10">
-        <v>10.81928652441064</v>
+        <v>10.81928652441047</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.467909184840977</v>
+        <v>4.467909184840778</v>
       </c>
       <c r="J10">
-        <v>0.9728593908325536</v>
+        <v>0.9728593908325109</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4121776346389225</v>
+        <v>0.4121776346389261</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.866591296744275</v>
+        <v>3.866591296744616</v>
       </c>
       <c r="C11">
-        <v>0.8844631524839031</v>
+        <v>0.8844631524838746</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4355288075325845</v>
+        <v>0.4355288075325205</v>
       </c>
       <c r="F11">
-        <v>11.79938498968244</v>
+        <v>11.79938498968249</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>4.869377784823257</v>
       </c>
       <c r="J11">
-        <v>1.062155948318136</v>
+        <v>1.06215594831805</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.464862830048844</v>
+        <v>0.4648628300488618</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.991601476797598</v>
+        <v>3.991601476797086</v>
       </c>
       <c r="C12">
-        <v>0.9144047738791414</v>
+        <v>0.9144047738780614</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4518520812427838</v>
+        <v>0.4518520812428335</v>
       </c>
       <c r="F12">
-        <v>12.18285741260058</v>
+        <v>12.18285741260081</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.026904644523114</v>
+        <v>5.026904644523285</v>
       </c>
       <c r="J12">
-        <v>1.096966845098407</v>
+        <v>1.096966845098336</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4860473097577334</v>
+        <v>0.4860473097577511</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.964511186627419</v>
+        <v>3.964511186628158</v>
       </c>
       <c r="C13">
-        <v>0.9079099543595817</v>
+        <v>0.9079099543589564</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4482992409061524</v>
+        <v>0.4482992409062092</v>
       </c>
       <c r="F13">
-        <v>12.09966739400221</v>
+        <v>12.09966739400204</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.992709214563206</v>
+        <v>4.992709214563092</v>
       </c>
       <c r="J13">
-        <v>1.08942137351643</v>
+        <v>1.089421373516544</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4814242837365761</v>
+        <v>0.4814242837365228</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.876801970140832</v>
+        <v>3.876801970140946</v>
       </c>
       <c r="C14">
-        <v>0.8869059622400073</v>
+        <v>0.8869059622422242</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4368552585114713</v>
+        <v>0.4368552585114571</v>
       </c>
       <c r="F14">
-        <v>11.83066725948726</v>
+        <v>11.83066725948743</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.882218681538717</v>
+        <v>4.882218681538916</v>
       </c>
       <c r="J14">
-        <v>1.06499847210516</v>
+        <v>1.064998472105188</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4665789478132503</v>
+        <v>0.4665789478132325</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.823551591069133</v>
+        <v>3.823551591068338</v>
       </c>
       <c r="C15">
-        <v>0.8741716923119043</v>
+        <v>0.8741716923129275</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4299507650688668</v>
+        <v>0.4299507650688312</v>
       </c>
       <c r="F15">
-        <v>11.66760030244347</v>
+        <v>11.66760030244319</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.815300719679357</v>
+        <v>4.815300719679158</v>
       </c>
       <c r="J15">
-        <v>1.050175755979879</v>
+        <v>1.050175755979851</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.525037695842229</v>
+        <v>3.525037695842684</v>
       </c>
       <c r="C16">
-        <v>0.8030277151364089</v>
+        <v>0.8030277151374889</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3918351512158864</v>
+        <v>0.3918351512158296</v>
       </c>
       <c r="F16">
-        <v>10.75678940749231</v>
+        <v>10.75678940749196</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.442364010489058</v>
+        <v>4.442364010488888</v>
       </c>
       <c r="J16">
         <v>0.9671502742196765</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4088892404773148</v>
+        <v>0.4088892404773077</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.347222265571986</v>
+        <v>3.347222265571872</v>
       </c>
       <c r="C17">
-        <v>0.7608392092238603</v>
+        <v>0.7608392092231497</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3695904770775726</v>
+        <v>0.36959047707753</v>
       </c>
       <c r="F17">
-        <v>10.2167595952246</v>
+        <v>10.21675959522443</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.221899978561879</v>
+        <v>4.221899978561851</v>
       </c>
       <c r="J17">
-        <v>0.9177482143139741</v>
+        <v>0.9177482143138178</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3808302415188933</v>
+        <v>0.3808302415188862</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.246679728581853</v>
+        <v>3.246679728581967</v>
       </c>
       <c r="C18">
-        <v>0.7370450330648737</v>
+        <v>0.7370450330647316</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3571588861276425</v>
+        <v>0.357158886127678</v>
       </c>
       <c r="F18">
-        <v>9.91218027080717</v>
+        <v>9.912180270807312</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.09776687144597</v>
+        <v>4.097766871446083</v>
       </c>
       <c r="J18">
-        <v>0.8898318323138596</v>
+        <v>0.8898318323138739</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3652863410616227</v>
+        <v>0.3652863410615694</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.212916253050309</v>
+        <v>3.212916253050651</v>
       </c>
       <c r="C19">
-        <v>0.7290642625841883</v>
+        <v>0.729064262585041</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3530074234259644</v>
+        <v>0.3530074234260283</v>
       </c>
       <c r="F19">
-        <v>9.81001831393823</v>
+        <v>9.810018313938201</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.056163538403183</v>
+        <v>4.056163538403126</v>
       </c>
       <c r="J19">
-        <v>0.8804598734490554</v>
+        <v>0.880459873449027</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3601181597229299</v>
+        <v>0.360118159723001</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.365967118148831</v>
+        <v>3.365967118148433</v>
       </c>
       <c r="C20">
-        <v>0.7652801150904907</v>
+        <v>0.7652801150886717</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3719197516534152</v>
+        <v>0.3719197516535573</v>
       </c>
       <c r="F20">
-        <v>10.27360474225313</v>
+        <v>10.27360474225327</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.24508417712201</v>
+        <v>4.245084177122095</v>
       </c>
       <c r="J20">
-        <v>0.9229542165726627</v>
+        <v>0.9229542165725491</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3837537768653121</v>
+        <v>0.3837537768653583</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.902463915553426</v>
+        <v>3.902463915553767</v>
       </c>
       <c r="C21">
-        <v>0.8930475226276542</v>
+        <v>0.8930475226285921</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4401942761872988</v>
+        <v>0.4401942761873059</v>
       </c>
       <c r="F21">
-        <v>11.90931786717221</v>
+        <v>11.90931786717209</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.914511044742</v>
+        <v>4.914511044741886</v>
       </c>
       <c r="J21">
-        <v>1.07214305132787</v>
+        <v>1.072143051327771</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4709030932435745</v>
+        <v>0.4709030932434963</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.273698077087261</v>
+        <v>4.273698077086692</v>
       </c>
       <c r="C22">
-        <v>0.9822493391368141</v>
+        <v>0.9822493391367288</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.489372965416571</v>
+        <v>0.4893729654167345</v>
       </c>
       <c r="F22">
-        <v>13.0522185150499</v>
+        <v>13.05221851505007</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.384988348119833</v>
+        <v>5.38498834811989</v>
       </c>
       <c r="J22">
-        <v>1.175599390983791</v>
+        <v>1.175599390983706</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5352653630614483</v>
+        <v>0.5352653630614341</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>4.073382678085466</v>
       </c>
       <c r="C23">
-        <v>0.9340330669238028</v>
+        <v>0.934033066923746</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4626303293743135</v>
+        <v>0.4626303293743774</v>
       </c>
       <c r="F23">
-        <v>12.43430285109753</v>
+        <v>12.4343028510977</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.130335601871423</v>
+        <v>5.130335601871593</v>
       </c>
       <c r="J23">
-        <v>1.119751468185498</v>
+        <v>1.119751468185484</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5001125911390005</v>
+        <v>0.5001125911390822</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.357487370704234</v>
+        <v>3.35748737070378</v>
       </c>
       <c r="C24">
-        <v>0.7632709619092566</v>
+        <v>0.7632709619084324</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3708655870522009</v>
+        <v>0.3708655870522577</v>
       </c>
       <c r="F24">
-        <v>10.24788690104754</v>
+        <v>10.24788690104748</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.234594547425161</v>
+        <v>4.234594547425104</v>
       </c>
       <c r="J24">
-        <v>0.9205990857645645</v>
+        <v>0.9205990857646356</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3824302369220121</v>
+        <v>0.3824302369220831</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.649998084839126</v>
+        <v>2.649998084838955</v>
       </c>
       <c r="C25">
-        <v>0.5966846097210237</v>
+        <v>0.5966846097206826</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2854380411430952</v>
+        <v>0.2854380411430526</v>
       </c>
       <c r="F25">
-        <v>8.114717376274655</v>
+        <v>8.114717376274598</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.368145677599571</v>
+        <v>3.368145677599585</v>
       </c>
       <c r="J25">
-        <v>0.7243989296001843</v>
+        <v>0.7243989296001416</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2777195520800504</v>
+        <v>0.2777195520800753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.165343450893488</v>
+        <v>2.165343450893545</v>
       </c>
       <c r="C2">
-        <v>0.4836477473174909</v>
+        <v>0.4836477473159277</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2295807443714111</v>
+        <v>0.2295807443713329</v>
       </c>
       <c r="F2">
-        <v>6.664959736421793</v>
+        <v>6.664959736421764</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.783050141147967</v>
+        <v>2.783050141148038</v>
       </c>
       <c r="J2">
-        <v>0.5903008139099128</v>
+        <v>0.5903008139098631</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2123827862313235</v>
+        <v>0.2123827862312702</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.852492327593978</v>
+        <v>1.852492327594035</v>
       </c>
       <c r="C3">
-        <v>0.4110746201694724</v>
+        <v>0.4110746201695861</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1945571536390425</v>
+        <v>0.1945571536390212</v>
       </c>
       <c r="F3">
         <v>5.732351035346142</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.408043959349683</v>
+        <v>2.408043959349797</v>
       </c>
       <c r="J3">
-        <v>0.5038499866640791</v>
+        <v>0.5038499866641502</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.172951826467056</v>
+        <v>0.1729518264670347</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.666276098343502</v>
+        <v>1.666276098343644</v>
       </c>
       <c r="C4">
-        <v>0.3679993072349532</v>
+        <v>0.3679993072351238</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1740632996722908</v>
+        <v>0.1740632996723406</v>
       </c>
       <c r="F4">
-        <v>5.177880687353479</v>
+        <v>5.177880687353451</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.185511991074478</v>
+        <v>2.185511991074534</v>
       </c>
       <c r="J4">
-        <v>0.4524268304819259</v>
+        <v>0.4524268304819614</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1505195756418054</v>
+        <v>0.1505195756417734</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.591638066055708</v>
+        <v>1.591638066055793</v>
       </c>
       <c r="C5">
         <v>0.3507556329451518</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1659184404104863</v>
+        <v>0.1659184404102909</v>
       </c>
       <c r="F5">
         <v>4.955686602897686</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.096409635408449</v>
+        <v>2.096409635408477</v>
       </c>
       <c r="J5">
-        <v>0.4318217632509658</v>
+        <v>0.4318217632509729</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1417500383829697</v>
+        <v>0.1417500383829413</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.579313592277714</v>
+        <v>1.579313592277742</v>
       </c>
       <c r="C6">
-        <v>0.3479093573039904</v>
+        <v>0.3479093573038767</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1645772147507429</v>
+        <v>0.1645772147507643</v>
       </c>
       <c r="F6">
-        <v>4.918996914342273</v>
+        <v>4.918996914342358</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.0817001947227</v>
+        <v>2.081700194722742</v>
       </c>
       <c r="J6">
-        <v>0.4284196835154503</v>
+        <v>0.4284196835155072</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1403143379763883</v>
+        <v>0.1403143379763279</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.665264739328336</v>
+        <v>1.665264739328364</v>
       </c>
       <c r="C7">
-        <v>0.3677655759454694</v>
+        <v>0.3677655759456684</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1739526764856407</v>
+        <v>0.1739526764854737</v>
       </c>
       <c r="F7">
-        <v>5.174869871836734</v>
+        <v>5.17486987183662</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.184304362047783</v>
+        <v>2.18430436204774</v>
       </c>
       <c r="J7">
-        <v>0.4521476066346253</v>
+        <v>0.4521476066345187</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1503998922351641</v>
+        <v>0.1503998922351784</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.056103651368517</v>
+        <v>2.056103651368176</v>
       </c>
       <c r="C8">
-        <v>0.4582751462436363</v>
+        <v>0.4582751462440626</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2172636517545712</v>
+        <v>0.2172636517544859</v>
       </c>
       <c r="F8">
         <v>6.339102445096756</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.651910048606169</v>
+        <v>2.651910048606155</v>
       </c>
       <c r="J8">
-        <v>0.5601053401606535</v>
+        <v>0.560105340160689</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1983683886299339</v>
+        <v>0.198368388629909</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.881590746418055</v>
+        <v>2.881590746418283</v>
       </c>
       <c r="C9">
-        <v>0.6509965672545093</v>
+        <v>0.6509965672560156</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3128699294088548</v>
+        <v>0.3128699294088264</v>
       </c>
       <c r="F9">
-        <v>8.810472238202067</v>
+        <v>8.810472238202124</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>3.649982893792938</v>
       </c>
       <c r="J9">
-        <v>0.7885619404202515</v>
+        <v>0.7885619404202373</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3107650192581808</v>
+        <v>0.3107650192581772</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>3.545577682566943</v>
       </c>
       <c r="C10">
-        <v>0.8079100128029495</v>
+        <v>0.8079100128034895</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3944264065874705</v>
+        <v>0.3944264065874989</v>
       </c>
       <c r="F10">
-        <v>10.81928652441047</v>
+        <v>10.81928652441064</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.467909184840778</v>
+        <v>4.467909184840977</v>
       </c>
       <c r="J10">
-        <v>0.9728593908325109</v>
+        <v>0.9728593908325536</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4121776346389261</v>
+        <v>0.4121776346389225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.866591296744616</v>
+        <v>3.866591296744275</v>
       </c>
       <c r="C11">
-        <v>0.8844631524838746</v>
+        <v>0.8844631524839031</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4355288075325205</v>
+        <v>0.4355288075325845</v>
       </c>
       <c r="F11">
-        <v>11.79938498968249</v>
+        <v>11.79938498968244</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>4.869377784823257</v>
       </c>
       <c r="J11">
-        <v>1.06215594831805</v>
+        <v>1.062155948318136</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4648628300488618</v>
+        <v>0.464862830048844</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.991601476797086</v>
+        <v>3.991601476797598</v>
       </c>
       <c r="C12">
-        <v>0.9144047738780614</v>
+        <v>0.9144047738791414</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4518520812428335</v>
+        <v>0.4518520812427838</v>
       </c>
       <c r="F12">
-        <v>12.18285741260081</v>
+        <v>12.18285741260058</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.026904644523285</v>
+        <v>5.026904644523114</v>
       </c>
       <c r="J12">
-        <v>1.096966845098336</v>
+        <v>1.096966845098407</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4860473097577511</v>
+        <v>0.4860473097577334</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.964511186628158</v>
+        <v>3.964511186627419</v>
       </c>
       <c r="C13">
-        <v>0.9079099543589564</v>
+        <v>0.9079099543595817</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4482992409062092</v>
+        <v>0.4482992409061524</v>
       </c>
       <c r="F13">
-        <v>12.09966739400204</v>
+        <v>12.09966739400221</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.992709214563092</v>
+        <v>4.992709214563206</v>
       </c>
       <c r="J13">
-        <v>1.089421373516544</v>
+        <v>1.08942137351643</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4814242837365228</v>
+        <v>0.4814242837365761</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.876801970140946</v>
+        <v>3.876801970140832</v>
       </c>
       <c r="C14">
-        <v>0.8869059622422242</v>
+        <v>0.8869059622400073</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4368552585114571</v>
+        <v>0.4368552585114713</v>
       </c>
       <c r="F14">
-        <v>11.83066725948743</v>
+        <v>11.83066725948726</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.882218681538916</v>
+        <v>4.882218681538717</v>
       </c>
       <c r="J14">
-        <v>1.064998472105188</v>
+        <v>1.06499847210516</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4665789478132325</v>
+        <v>0.4665789478132503</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.823551591068338</v>
+        <v>3.823551591069133</v>
       </c>
       <c r="C15">
-        <v>0.8741716923129275</v>
+        <v>0.8741716923119043</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4299507650688312</v>
+        <v>0.4299507650688668</v>
       </c>
       <c r="F15">
-        <v>11.66760030244319</v>
+        <v>11.66760030244347</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.815300719679158</v>
+        <v>4.815300719679357</v>
       </c>
       <c r="J15">
-        <v>1.050175755979851</v>
+        <v>1.050175755979879</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.525037695842684</v>
+        <v>3.525037695842229</v>
       </c>
       <c r="C16">
-        <v>0.8030277151374889</v>
+        <v>0.8030277151364089</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3918351512158296</v>
+        <v>0.3918351512158864</v>
       </c>
       <c r="F16">
-        <v>10.75678940749196</v>
+        <v>10.75678940749231</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.442364010488888</v>
+        <v>4.442364010489058</v>
       </c>
       <c r="J16">
         <v>0.9671502742196765</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4088892404773077</v>
+        <v>0.4088892404773148</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.347222265571872</v>
+        <v>3.347222265571986</v>
       </c>
       <c r="C17">
-        <v>0.7608392092231497</v>
+        <v>0.7608392092238603</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.36959047707753</v>
+        <v>0.3695904770775726</v>
       </c>
       <c r="F17">
-        <v>10.21675959522443</v>
+        <v>10.2167595952246</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.221899978561851</v>
+        <v>4.221899978561879</v>
       </c>
       <c r="J17">
-        <v>0.9177482143138178</v>
+        <v>0.9177482143139741</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3808302415188862</v>
+        <v>0.3808302415188933</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.246679728581967</v>
+        <v>3.246679728581853</v>
       </c>
       <c r="C18">
-        <v>0.7370450330647316</v>
+        <v>0.7370450330648737</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.357158886127678</v>
+        <v>0.3571588861276425</v>
       </c>
       <c r="F18">
-        <v>9.912180270807312</v>
+        <v>9.91218027080717</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.097766871446083</v>
+        <v>4.09776687144597</v>
       </c>
       <c r="J18">
-        <v>0.8898318323138739</v>
+        <v>0.8898318323138596</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3652863410615694</v>
+        <v>0.3652863410616227</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.212916253050651</v>
+        <v>3.212916253050309</v>
       </c>
       <c r="C19">
-        <v>0.729064262585041</v>
+        <v>0.7290642625841883</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3530074234260283</v>
+        <v>0.3530074234259644</v>
       </c>
       <c r="F19">
-        <v>9.810018313938201</v>
+        <v>9.81001831393823</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.056163538403126</v>
+        <v>4.056163538403183</v>
       </c>
       <c r="J19">
-        <v>0.880459873449027</v>
+        <v>0.8804598734490554</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.360118159723001</v>
+        <v>0.3601181597229299</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.365967118148433</v>
+        <v>3.365967118148831</v>
       </c>
       <c r="C20">
-        <v>0.7652801150886717</v>
+        <v>0.7652801150904907</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3719197516535573</v>
+        <v>0.3719197516534152</v>
       </c>
       <c r="F20">
-        <v>10.27360474225327</v>
+        <v>10.27360474225313</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.245084177122095</v>
+        <v>4.24508417712201</v>
       </c>
       <c r="J20">
-        <v>0.9229542165725491</v>
+        <v>0.9229542165726627</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3837537768653583</v>
+        <v>0.3837537768653121</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.902463915553767</v>
+        <v>3.902463915553426</v>
       </c>
       <c r="C21">
-        <v>0.8930475226285921</v>
+        <v>0.8930475226276542</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4401942761873059</v>
+        <v>0.4401942761872988</v>
       </c>
       <c r="F21">
-        <v>11.90931786717209</v>
+        <v>11.90931786717221</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.914511044741886</v>
+        <v>4.914511044742</v>
       </c>
       <c r="J21">
-        <v>1.072143051327771</v>
+        <v>1.07214305132787</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4709030932434963</v>
+        <v>0.4709030932435745</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.273698077086692</v>
+        <v>4.273698077087261</v>
       </c>
       <c r="C22">
-        <v>0.9822493391367288</v>
+        <v>0.9822493391368141</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4893729654167345</v>
+        <v>0.489372965416571</v>
       </c>
       <c r="F22">
-        <v>13.05221851505007</v>
+        <v>13.0522185150499</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.38498834811989</v>
+        <v>5.384988348119833</v>
       </c>
       <c r="J22">
-        <v>1.175599390983706</v>
+        <v>1.175599390983791</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5352653630614341</v>
+        <v>0.5352653630614483</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>4.073382678085466</v>
       </c>
       <c r="C23">
-        <v>0.934033066923746</v>
+        <v>0.9340330669238028</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4626303293743774</v>
+        <v>0.4626303293743135</v>
       </c>
       <c r="F23">
-        <v>12.4343028510977</v>
+        <v>12.43430285109753</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.130335601871593</v>
+        <v>5.130335601871423</v>
       </c>
       <c r="J23">
-        <v>1.119751468185484</v>
+        <v>1.119751468185498</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5001125911390822</v>
+        <v>0.5001125911390005</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.35748737070378</v>
+        <v>3.357487370704234</v>
       </c>
       <c r="C24">
-        <v>0.7632709619084324</v>
+        <v>0.7632709619092566</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3708655870522577</v>
+        <v>0.3708655870522009</v>
       </c>
       <c r="F24">
-        <v>10.24788690104748</v>
+        <v>10.24788690104754</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.234594547425104</v>
+        <v>4.234594547425161</v>
       </c>
       <c r="J24">
-        <v>0.9205990857646356</v>
+        <v>0.9205990857645645</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3824302369220831</v>
+        <v>0.3824302369220121</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.649998084838955</v>
+        <v>2.649998084839126</v>
       </c>
       <c r="C25">
-        <v>0.5966846097206826</v>
+        <v>0.5966846097210237</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2854380411430526</v>
+        <v>0.2854380411430952</v>
       </c>
       <c r="F25">
-        <v>8.114717376274598</v>
+        <v>8.114717376274655</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.368145677599585</v>
+        <v>3.368145677599571</v>
       </c>
       <c r="J25">
-        <v>0.7243989296001416</v>
+        <v>0.7243989296001843</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2777195520800753</v>
+        <v>0.2777195520800504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.165343450893545</v>
+        <v>2.142839719869528</v>
       </c>
       <c r="C2">
-        <v>0.4836477473159277</v>
+        <v>0.4723585258149683</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2295807443713329</v>
+        <v>0.2354886464432155</v>
       </c>
       <c r="F2">
-        <v>6.664959736421764</v>
+        <v>6.657041665669254</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007923387949708393</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.783050141148038</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5903008139098631</v>
+        <v>2.788448682670193</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5825708358476334</v>
       </c>
       <c r="L2">
-        <v>0.2123827862312702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.2085235443370905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.852492327594035</v>
+        <v>1.835040896011549</v>
       </c>
       <c r="C3">
-        <v>0.4110746201695861</v>
+        <v>0.4013959005576169</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1945571536390212</v>
+        <v>0.2001442667635835</v>
       </c>
       <c r="F3">
-        <v>5.732351035346142</v>
+        <v>5.728222903739209</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008041225339929913</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.408043959349797</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5038499866641502</v>
+        <v>2.415059043229817</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4976443459091158</v>
       </c>
       <c r="L3">
-        <v>0.1729518264670347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.1696749152308641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.666276098343644</v>
+        <v>1.651891962254268</v>
       </c>
       <c r="C4">
-        <v>0.3679993072351238</v>
+        <v>0.3592997091877805</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1740632996723406</v>
+        <v>0.1794403503517152</v>
       </c>
       <c r="F4">
-        <v>5.177880687353451</v>
+        <v>5.175903392405615</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00081145490820825</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.185511991074534</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4524268304819614</v>
+        <v>2.193420341250203</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4471472568466481</v>
       </c>
       <c r="L4">
-        <v>0.1505195756417734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.1475855285244734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.591638066055793</v>
+        <v>1.578499799777887</v>
       </c>
       <c r="C5">
-        <v>0.3507556329451518</v>
+        <v>0.3424540775334322</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1659184404102909</v>
+        <v>0.1712068398547224</v>
       </c>
       <c r="F5">
-        <v>4.955686602897686</v>
+        <v>4.954550995927974</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008144724521264024</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.096409635408477</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4318217632509729</v>
+        <v>2.104661771311712</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4269184913520476</v>
       </c>
       <c r="L5">
-        <v>0.1417500383829413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.1389531807351609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.579313592277742</v>
+        <v>1.566382077371657</v>
       </c>
       <c r="C6">
-        <v>0.3479093573038767</v>
+        <v>0.3396738775246888</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1645772147507643</v>
+        <v>0.1698507152967608</v>
       </c>
       <c r="F6">
-        <v>4.918996914342358</v>
+        <v>4.917999208899488</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008149754342817066</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.081700194722742</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4284196835155072</v>
+        <v>2.090008314818789</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.423578867748077</v>
       </c>
       <c r="L6">
-        <v>0.1403143379763279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.1375401370825529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.665264739328364</v>
+        <v>1.650897416377234</v>
       </c>
       <c r="C7">
-        <v>0.3677655759456684</v>
+        <v>0.3590713481327441</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1739526764854737</v>
+        <v>0.1793285436614411</v>
       </c>
       <c r="F7">
-        <v>5.17486987183662</v>
+        <v>5.172904057924995</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008114954777434408</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.18430436204774</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4521476066345187</v>
+        <v>2.192217424974771</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4468731106161954</v>
       </c>
       <c r="L7">
-        <v>0.1503998922351784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.1474677041910546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.056103651368176</v>
+        <v>2.035352274405454</v>
       </c>
       <c r="C8">
-        <v>0.4582751462440626</v>
+        <v>0.4475442302594388</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2172636517544859</v>
+        <v>0.2230638378389074</v>
       </c>
       <c r="F8">
-        <v>6.339102445096756</v>
+        <v>6.332534119832928</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007963849834137654</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.651910048606155</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.560105340160689</v>
+        <v>2.657889771913347</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5529039335208665</v>
       </c>
       <c r="L8">
-        <v>0.198368388629909</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.1947137691937755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.881590746418283</v>
+        <v>2.847776876802357</v>
       </c>
       <c r="C9">
-        <v>0.6509965672560156</v>
+        <v>0.6361093586734796</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3128699294088264</v>
+        <v>0.3193812963637512</v>
       </c>
       <c r="F9">
-        <v>8.810472238202124</v>
+        <v>8.792908039118515</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007672480567466739</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.649982893792938</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7885619404202373</v>
+        <v>3.651099006162354</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7774232003692418</v>
       </c>
       <c r="L9">
-        <v>0.3107650192581772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.3055064979167739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.545577682566943</v>
+        <v>3.501337090150059</v>
       </c>
       <c r="C10">
-        <v>0.8079100128034895</v>
+        <v>0.7897108585427759</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3944264065874989</v>
+        <v>0.4013469091487423</v>
       </c>
       <c r="F10">
-        <v>10.81928652441064</v>
+        <v>10.79129833310401</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007456649268372529</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.467909184840977</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9728593908325536</v>
+        <v>4.464231464288048</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9585812130060845</v>
       </c>
       <c r="L10">
-        <v>0.4121776346389225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.4054838611067879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.866591296744275</v>
+        <v>3.817260367498591</v>
       </c>
       <c r="C11">
-        <v>0.8844631524839031</v>
+        <v>0.8646477141284947</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4355288075325845</v>
+        <v>0.4425938026087337</v>
       </c>
       <c r="F11">
-        <v>11.79938498968244</v>
+        <v>11.76572762528059</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007356637284068499</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.869377784823257</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.062155948318136</v>
+        <v>4.863048033370092</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.046345771649129</v>
       </c>
       <c r="L11">
-        <v>0.464862830048844</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0.4574076645389411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.991601476797598</v>
+        <v>3.940272464630823</v>
       </c>
       <c r="C12">
-        <v>0.9144047738791414</v>
+        <v>0.8939548990906019</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4518520812427838</v>
+        <v>0.458963282097983</v>
       </c>
       <c r="F12">
-        <v>12.18285741260058</v>
+        <v>12.14686453073676</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007318339995397243</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.026904644523114</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.096966845098407</v>
+        <v>5.019475602072589</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.080555403478868</v>
       </c>
       <c r="L12">
-        <v>0.4860473097577334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0.4782811864429384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.964511186627419</v>
+        <v>3.913616044007085</v>
       </c>
       <c r="C13">
-        <v>0.9079099543595817</v>
+        <v>0.8875978451160904</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4482992409061524</v>
+        <v>0.4554009245287034</v>
       </c>
       <c r="F13">
-        <v>12.09966739400221</v>
+        <v>12.06418705462875</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007326609983211172</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.992709214563206</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.08942137351643</v>
+        <v>4.985521716993588</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.073140489024496</v>
       </c>
       <c r="L13">
-        <v>0.4814242837365761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.4737262844288956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.876801970140832</v>
+        <v>3.82730821540099</v>
       </c>
       <c r="C14">
-        <v>0.8869059622400073</v>
+        <v>0.8670388238949442</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4368552585114713</v>
+        <v>0.4439242449674552</v>
       </c>
       <c r="F14">
-        <v>11.83066725948726</v>
+        <v>11.79682193881831</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007353496151459257</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.882218681538717</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.06499847210516</v>
+        <v>4.87580059458773</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.049139296328534</v>
       </c>
       <c r="L14">
-        <v>0.4665789478132503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.4590987049601161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.823551591069133</v>
+        <v>3.774906307854678</v>
       </c>
       <c r="C15">
-        <v>0.8741716923119043</v>
+        <v>0.8545739579014935</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4299507650688668</v>
+        <v>0.4369985170598056</v>
       </c>
       <c r="F15">
-        <v>11.66760030244347</v>
+        <v>11.63472984147546</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007369903782737897</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.815300719679357</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.050175755979879</v>
+        <v>4.809340532198178</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.034571914067897</v>
       </c>
       <c r="L15">
-        <v>0.4576567032495831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.4503066325183589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.525037695842229</v>
+        <v>3.481121188583586</v>
       </c>
       <c r="C16">
-        <v>0.8030277151364089</v>
+        <v>0.7849314695249632</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3918351512158864</v>
+        <v>0.3987451862242111</v>
       </c>
       <c r="F16">
-        <v>10.75678940749231</v>
+        <v>10.72914883458367</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007463135630839736</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.442364010489058</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9671502742196765</v>
+        <v>4.438848046337199</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9529696459278085</v>
       </c>
       <c r="L16">
-        <v>0.4088892404773148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.4022425079479817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.347222265571986</v>
+        <v>3.306105315388493</v>
       </c>
       <c r="C17">
-        <v>0.7608392092238603</v>
+        <v>0.7436319818849029</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3695904770775726</v>
+        <v>0.3764039450610142</v>
       </c>
       <c r="F17">
-        <v>10.2167595952246</v>
+        <v>10.19205728603683</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007519759836797643</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.221899978561879</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9177482143139741</v>
+        <v>4.219746689802122</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9044103237626331</v>
       </c>
       <c r="L17">
-        <v>0.3808302415188933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.3745830669297838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.246679728581853</v>
+        <v>3.207141898738712</v>
       </c>
       <c r="C18">
-        <v>0.7370450330648737</v>
+        <v>0.7203393280723844</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3571588861276425</v>
+        <v>0.3639130993298281</v>
       </c>
       <c r="F18">
-        <v>9.91218027080717</v>
+        <v>9.889085039929739</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007552168241152174</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.09776687144597</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8898318323138596</v>
+        <v>4.09635513202835</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.876969359299224</v>
       </c>
       <c r="L18">
-        <v>0.3652863410616227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.3592593233941059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.212916253050309</v>
+        <v>3.173908256968957</v>
       </c>
       <c r="C19">
-        <v>0.7290642625841883</v>
+        <v>0.7125268434247687</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3530074234259644</v>
+        <v>0.3597409937520055</v>
       </c>
       <c r="F19">
-        <v>9.81001831393823</v>
+        <v>9.787454301048427</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007563117870390353</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.056163538403183</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8804598734490554</v>
+        <v>4.054996279407533</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.867756925713806</v>
       </c>
       <c r="L19">
-        <v>0.3601181597229299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.3541641932693906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.365967118148831</v>
+        <v>3.32455549632374</v>
       </c>
       <c r="C20">
-        <v>0.7652801150904907</v>
+        <v>0.747979306836811</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3719197516534152</v>
+        <v>0.3787438978094073</v>
       </c>
       <c r="F20">
-        <v>10.27360474225313</v>
+        <v>10.24859856206143</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007513749725644108</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.24508417712201</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9229542165726627</v>
+        <v>4.242790361476693</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9095276159664678</v>
       </c>
       <c r="L20">
-        <v>0.3837537768653121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.3774651098930057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.902463915553426</v>
+        <v>3.852560654509205</v>
       </c>
       <c r="C21">
-        <v>0.8930475226276542</v>
+        <v>0.8730503582760605</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4401942761872988</v>
+        <v>0.4472731246289783</v>
       </c>
       <c r="F21">
-        <v>11.90931786717221</v>
+        <v>11.8749979887499</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007345612083399155</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.914511044742</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.07214305132787</v>
+        <v>4.907869819763931</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.056160643971083</v>
       </c>
       <c r="L21">
-        <v>0.4709030932435745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.4633595763214871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.273698077087261</v>
+        <v>4.217818289310401</v>
       </c>
       <c r="C22">
-        <v>0.9822493391368141</v>
+        <v>0.9603543347521395</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.489372965416571</v>
+        <v>0.4965663087272034</v>
       </c>
       <c r="F22">
-        <v>13.0522185150499</v>
+        <v>13.01066506610681</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007233135329558493</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.384988348119833</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.175599390983791</v>
+        <v>5.374929158987641</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.157818650100509</v>
       </c>
       <c r="L22">
-        <v>0.5352653630614483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0.5267638501772574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.073382678085466</v>
+        <v>4.02074073772917</v>
       </c>
       <c r="C23">
-        <v>0.9340330669238028</v>
+        <v>0.9131662907735745</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4626303293743135</v>
+        <v>0.4697685646127354</v>
       </c>
       <c r="F23">
-        <v>12.43430285109753</v>
+        <v>12.39674051052401</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007293469724933285</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.130335601871423</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.119751468185498</v>
+        <v>5.122165936970191</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.102944959058732</v>
       </c>
       <c r="L23">
-        <v>0.5001125911390005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.4921382474207086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.357487370704234</v>
+        <v>3.316209063124688</v>
       </c>
       <c r="C24">
-        <v>0.7632709619092566</v>
+        <v>0.7460124909835031</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3708655870522009</v>
+        <v>0.3776849170776657</v>
       </c>
       <c r="F24">
-        <v>10.24788690104754</v>
+        <v>10.2230183530684</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007516467339169831</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.234594547425161</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9205990857645645</v>
+        <v>4.232364392529661</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.907212618834464</v>
       </c>
       <c r="L24">
-        <v>0.3824302369220121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.3761603579329744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.649998084839126</v>
+        <v>2.619819464813247</v>
       </c>
       <c r="C25">
-        <v>0.5966846097210237</v>
+        <v>0.5829529990928961</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2854380411430952</v>
+        <v>0.2917729979060582</v>
       </c>
       <c r="F25">
-        <v>8.114717376274655</v>
+        <v>8.100434377046128</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007751207869188326</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.368145677599571</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7243989296001843</v>
+        <v>3.370739767436447</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7143553577499659</v>
       </c>
       <c r="L25">
-        <v>0.2777195520800504</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.2729268292160079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.142839719869528</v>
+        <v>2.594337862485531</v>
       </c>
       <c r="C2">
-        <v>0.4723585258149683</v>
+        <v>0.4080972032222974</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2354886464432155</v>
+        <v>0.03281518819267104</v>
       </c>
       <c r="F2">
-        <v>6.657041665669254</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007923387949708393</v>
+        <v>0.0008229116313366295</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.788448682670193</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5825708358476334</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1475821133749449</v>
       </c>
       <c r="M2">
-        <v>0.2085235443370905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4318671402120913</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.758691937815229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.835040896011549</v>
+        <v>2.255647551132427</v>
       </c>
       <c r="C3">
-        <v>0.4013959005576169</v>
+        <v>0.3550294462691568</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2001442667635835</v>
+        <v>0.03251563226981558</v>
       </c>
       <c r="F3">
-        <v>5.728222903739209</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008041225339929913</v>
+        <v>0.000832231930827501</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.415059043229817</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4976443459091158</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1338808133334197</v>
       </c>
       <c r="M3">
-        <v>0.1696749152308641</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3781344798382946</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.516497095178153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.651891962254268</v>
+        <v>2.051896769136761</v>
       </c>
       <c r="C4">
-        <v>0.3592997091877805</v>
+        <v>0.32286773798387</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1794403503517152</v>
+        <v>0.03234200026612988</v>
       </c>
       <c r="F4">
-        <v>5.175903392405615</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.00081145490820825</v>
+        <v>0.0008380913348283548</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.193420341250203</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4471472568466481</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1257156043956087</v>
       </c>
       <c r="M4">
-        <v>0.1475855285244734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3458635037074416</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2.373038132401973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.578499799777887</v>
+        <v>1.96979147302801</v>
       </c>
       <c r="C5">
-        <v>0.3424540775334322</v>
+        <v>0.3098463653241481</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1712068398547224</v>
+        <v>0.03227345992533459</v>
       </c>
       <c r="F5">
-        <v>4.954550995927974</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008144724521264024</v>
+        <v>0.0008405155477382797</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.104661771311712</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4269184913520476</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1224445483414911</v>
       </c>
       <c r="M5">
-        <v>0.1389531807351609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3328727791338508</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2.315751071341467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.566382077371657</v>
+        <v>1.95621015186191</v>
       </c>
       <c r="C6">
-        <v>0.3396738775246888</v>
+        <v>0.3076887122647634</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1698507152967608</v>
+        <v>0.03226220258721169</v>
       </c>
       <c r="F6">
-        <v>4.917999208899488</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008149754342817066</v>
+        <v>0.0008409203460530978</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.090008314818789</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.423578867748077</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1219046318674515</v>
       </c>
       <c r="M6">
-        <v>0.1375401370825529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3307247525568542</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2.306305440560521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.650897416377234</v>
+        <v>2.050785890718771</v>
       </c>
       <c r="C7">
-        <v>0.3590713481327441</v>
+        <v>0.3226918106173571</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1793285436614411</v>
+        <v>0.03234106739669984</v>
       </c>
       <c r="F7">
-        <v>5.172904057924995</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008114954777434408</v>
+        <v>0.0008381238782696046</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.192217424974771</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4468731106161954</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1256712691104767</v>
       </c>
       <c r="M7">
-        <v>0.1474677041910546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3456876854046769</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.372260971420843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.035352274405454</v>
+        <v>2.476600312784683</v>
       </c>
       <c r="C8">
-        <v>0.4475442302594388</v>
+        <v>0.389698281026142</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2230638378389074</v>
+        <v>0.03270952586760489</v>
       </c>
       <c r="F8">
-        <v>6.332534119832928</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007963849834137654</v>
+        <v>0.0008260982105514361</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.657889771913347</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5529039335208665</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1428028333335547</v>
       </c>
       <c r="M8">
-        <v>0.1947137691937755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4131769509470971</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.674001279888472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.847776876802357</v>
+        <v>3.351749022929766</v>
       </c>
       <c r="C9">
-        <v>0.6361093586734796</v>
+        <v>0.5255399526370184</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3193812963637512</v>
+        <v>0.03353319076023498</v>
       </c>
       <c r="F9">
-        <v>8.792908039118515</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007672480567466739</v>
+        <v>0.0008034957968987566</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.651099006162354</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7774232003692418</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1786581984087405</v>
       </c>
       <c r="M9">
-        <v>0.3055064979167739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5523281666554283</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.314738996806071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.501337090150059</v>
+        <v>4.02993214368388</v>
       </c>
       <c r="C10">
-        <v>0.7897108585427759</v>
+        <v>0.6298069884218762</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4013469091487423</v>
+        <v>0.03423191126047098</v>
       </c>
       <c r="F10">
-        <v>10.79129833310401</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007456649268372529</v>
+        <v>0.0007873219306500666</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.464231464288048</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9585812130060845</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2068483769107416</v>
       </c>
       <c r="M10">
-        <v>0.4054838611067879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6604327307880382</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>3.827021963271562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.817260367498591</v>
+        <v>4.348939643440588</v>
       </c>
       <c r="C11">
-        <v>0.8646477141284947</v>
+        <v>0.6786801058780441</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4425938026087337</v>
+        <v>0.03457894937107664</v>
       </c>
       <c r="F11">
-        <v>11.76572762528059</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007356637284068499</v>
+        <v>0.0007800146784001529</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.863048033370092</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.046345771649129</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2201965942526698</v>
       </c>
       <c r="M11">
-        <v>0.4574076645389411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7113405658485092</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>4.072147621480951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.940272464630823</v>
+        <v>4.471528238844996</v>
       </c>
       <c r="C12">
-        <v>0.8939548990906019</v>
+        <v>0.697441142230133</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.458963282097983</v>
+        <v>0.03471547193531199</v>
       </c>
       <c r="F12">
-        <v>12.14686453073676</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007318339995397243</v>
+        <v>0.0007772506376061096</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.019475602072589</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.080555403478868</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2253385759075002</v>
       </c>
       <c r="M12">
-        <v>0.4782811864429384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7309113915344483</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>4.167008128095205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.913616044007085</v>
+        <v>4.445042216735146</v>
       </c>
       <c r="C13">
-        <v>0.8875978451160904</v>
+        <v>0.6933885042215593</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4554009245287034</v>
+        <v>0.0346858258950864</v>
       </c>
       <c r="F13">
-        <v>12.06418705462875</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007326609983211172</v>
+        <v>0.0007778458606712905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.985521716993588</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.073140489024496</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2242270672284121</v>
       </c>
       <c r="M13">
-        <v>0.4737262844288956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7266826493554035</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4.146482392629849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.82730821540099</v>
+        <v>4.358987516824243</v>
       </c>
       <c r="C14">
-        <v>0.8670388238949442</v>
+        <v>0.6802182063906628</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4439242449674552</v>
+        <v>0.03459007299429295</v>
       </c>
       <c r="F14">
-        <v>11.79682193881831</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007353496151459257</v>
+        <v>0.000779787244097798</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.87580059458773</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.049139296328534</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.220617804181046</v>
       </c>
       <c r="M14">
-        <v>0.4590987049601161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7129445170226916</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.079909160929304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.774906307854678</v>
+        <v>4.306518261116139</v>
       </c>
       <c r="C15">
-        <v>0.8545739579014935</v>
+        <v>0.6721855875889844</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4369985170598056</v>
+        <v>0.03453211653583166</v>
       </c>
       <c r="F15">
-        <v>11.63472984147546</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007369903782737897</v>
+        <v>0.0007809766610575745</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.809340532198178</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.034571914067897</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2184187781544438</v>
       </c>
       <c r="M15">
-        <v>0.4503066325183589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7045691170716424</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>4.039406010063516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.481121188583586</v>
+        <v>4.009318312625908</v>
       </c>
       <c r="C16">
-        <v>0.7849314695249632</v>
+        <v>0.6266458353581186</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3987451862242111</v>
+        <v>0.03420989282255182</v>
       </c>
       <c r="F16">
-        <v>10.72914883458367</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007463135630839736</v>
+        <v>0.000787800145627146</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.438848046337199</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9529696459278085</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2059875699069806</v>
       </c>
       <c r="M16">
-        <v>0.4022425079479817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.6571442444929048</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>3.81127017384776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.306105315388493</v>
+        <v>3.829869586036523</v>
       </c>
       <c r="C17">
-        <v>0.7436319818849029</v>
+        <v>0.5991087458617415</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3764039450610142</v>
+        <v>0.0340202908963394</v>
       </c>
       <c r="F17">
-        <v>10.19205728603683</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007519759836797643</v>
+        <v>0.0007919962332310525</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.219746689802122</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9044103237626331</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1985036751559193</v>
       </c>
       <c r="M17">
-        <v>0.3745830669297838</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6285233556079959</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>3.674610843686082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.207141898738712</v>
+        <v>3.727624729554805</v>
       </c>
       <c r="C18">
-        <v>0.7203393280723844</v>
+        <v>0.5834026371113623</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3639130993298281</v>
+        <v>0.03391392073722277</v>
       </c>
       <c r="F18">
-        <v>9.889085039929739</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007552168241152174</v>
+        <v>0.0007944147310200052</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.09635513202835</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.876969359299224</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.194247688017029</v>
       </c>
       <c r="M18">
-        <v>0.3592593233941059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6122212565459577</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3.597125299999902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.173908256968957</v>
+        <v>3.69316505674243</v>
       </c>
       <c r="C19">
-        <v>0.7125268434247687</v>
+        <v>0.5781062740144591</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3597409937520055</v>
+        <v>0.03387834150813029</v>
       </c>
       <c r="F19">
-        <v>9.787454301048427</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007563117870390353</v>
+        <v>0.0007952345726517982</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.054996279407533</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.867756925713806</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1928146870647964</v>
       </c>
       <c r="M19">
-        <v>0.3541641932693906</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6067278602162745</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>3.571073513995884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.32455549632374</v>
+        <v>3.848870009638574</v>
       </c>
       <c r="C20">
-        <v>0.747979306836811</v>
+        <v>0.6020260892447311</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3787438978094073</v>
+        <v>0.03404019051279583</v>
       </c>
       <c r="F20">
-        <v>10.24859856206143</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007513749725644108</v>
+        <v>0.000791549061272742</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.242790361476693</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9095276159664678</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1992952428327754</v>
       </c>
       <c r="M20">
-        <v>0.3774651098930057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6315532510985378</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.689040801403991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.852560654509205</v>
+        <v>4.384212934457594</v>
       </c>
       <c r="C21">
-        <v>0.8730503582760605</v>
+        <v>0.684079343962253</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4472731246289783</v>
+        <v>0.0346180512423544</v>
       </c>
       <c r="F21">
-        <v>11.8749979887499</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007345612083399155</v>
+        <v>0.0007792169662076906</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.907869819763931</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.056160643971083</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2216754594309549</v>
       </c>
       <c r="M21">
-        <v>0.4633595763214871</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7169713976298979</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>4.099405450877754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.217818289310401</v>
+        <v>4.744669868484607</v>
       </c>
       <c r="C22">
-        <v>0.9603543347521395</v>
+        <v>0.7392128892458345</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4965663087272034</v>
+        <v>0.03502603639153423</v>
       </c>
       <c r="F22">
-        <v>13.01066506610681</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007233135329558493</v>
+        <v>0.0007711726353349935</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.374929158987641</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.157818650100509</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2368179214453789</v>
       </c>
       <c r="M22">
-        <v>0.5267638501772574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7745313438484729</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>4.379647000773673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.02074073772917</v>
+        <v>4.551215923019242</v>
       </c>
       <c r="C23">
-        <v>0.9131662907735745</v>
+        <v>0.7096317448981324</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4697685646127354</v>
+        <v>0.03480516542296042</v>
       </c>
       <c r="F23">
-        <v>12.39674051052401</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007293469724933285</v>
+        <v>0.0007754661858027469</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.122165936970191</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.102944959058732</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2286845171093717</v>
       </c>
       <c r="M23">
-        <v>0.4921382474207086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7436353833750076</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>4.228863804131834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.316209063124688</v>
+        <v>3.840277064832435</v>
       </c>
       <c r="C24">
-        <v>0.7460124909835031</v>
+        <v>0.6007067713375989</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3776849170776657</v>
+        <v>0.03403118575643482</v>
       </c>
       <c r="F24">
-        <v>10.2230183530684</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0.0007516467339169831</v>
+        <v>0.0007917512084029529</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.232364392529661</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.907212618834464</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1989372308018886</v>
       </c>
       <c r="M24">
-        <v>0.3761603579329744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6301829638153436</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.682513670179134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.619819464813247</v>
+        <v>3.109675659679169</v>
       </c>
       <c r="C25">
-        <v>0.5829529990928961</v>
+        <v>0.4881488114224624</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2917729979060582</v>
+        <v>0.03329655339241877</v>
       </c>
       <c r="F25">
-        <v>8.100434377046128</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007751207869188326</v>
+        <v>0.0008095213003271922</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.370739767436447</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7143553577499659</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1686713814043941</v>
       </c>
       <c r="M25">
-        <v>0.2729268292160079</v>
+        <v>0.513790977147444</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.135038726124066</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.594337862485531</v>
+        <v>0.9081028390627353</v>
       </c>
       <c r="C2">
-        <v>0.4080972032222974</v>
+        <v>0.109945115106612</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03281518819267104</v>
+        <v>0.3186317839818003</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.734835642521389</v>
       </c>
       <c r="G2">
-        <v>0.0008229116313366295</v>
+        <v>0.6518672088784285</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4824873065282418</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03378608666836191</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9224709299442964</v>
       </c>
       <c r="L2">
-        <v>0.1475821133749449</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4318671402120913</v>
+        <v>0.5804121555097765</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9685424019432638</v>
       </c>
       <c r="O2">
-        <v>2.758691937815229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.255647551132427</v>
+        <v>0.7875101048083195</v>
       </c>
       <c r="C3">
-        <v>0.3550294462691568</v>
+        <v>0.09629854338815846</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03251563226981558</v>
+        <v>0.2836395342172082</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>1.605730816445785</v>
       </c>
       <c r="G3">
-        <v>0.000832231930827501</v>
+        <v>0.6263072418928886</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4781015105454856</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03529995925303053</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7991589576645026</v>
       </c>
       <c r="L3">
-        <v>0.1338808133334197</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3781344798382946</v>
+        <v>0.5066835969951811</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.017459916096776</v>
       </c>
       <c r="O3">
-        <v>2.516497095178153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.051896769136761</v>
+        <v>0.7139957375139545</v>
       </c>
       <c r="C4">
-        <v>0.32286773798387</v>
+        <v>0.08794995524053206</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03234200026612988</v>
+        <v>0.2624664548722535</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.529238925459964</v>
       </c>
       <c r="G4">
-        <v>0.0008380913348283548</v>
+        <v>0.6120547644970316</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4762487322289104</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03626961065435141</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7239205210126727</v>
       </c>
       <c r="L4">
-        <v>0.1257156043956087</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3458635037074416</v>
+        <v>0.4618694143374924</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.048881842266169</v>
       </c>
       <c r="O4">
-        <v>2.373038132401973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.96979147302801</v>
+        <v>0.6841523681128479</v>
       </c>
       <c r="C5">
-        <v>0.3098463653241481</v>
+        <v>0.08455325709311978</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03227345992533459</v>
+        <v>0.2539098240908757</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>1.498719912846482</v>
       </c>
       <c r="G5">
-        <v>0.0008405155477382797</v>
+        <v>0.6065879390397981</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4756954296103117</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0366746246609746</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6933604007808327</v>
       </c>
       <c r="L5">
-        <v>0.1224445483414911</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3328727791338508</v>
+        <v>0.4437087669733373</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.062025249631887</v>
       </c>
       <c r="O5">
-        <v>2.315751071341467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.95621015186191</v>
+        <v>0.6792032716084009</v>
       </c>
       <c r="C6">
-        <v>0.3076887122647634</v>
+        <v>0.08398950250625603</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03226220258721169</v>
+        <v>0.2524931290431596</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.493690320689424</v>
       </c>
       <c r="G6">
-        <v>0.0008409203460530978</v>
+        <v>0.6057001833062259</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4756154690220313</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03674246714079299</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6882914186896159</v>
       </c>
       <c r="L6">
-        <v>0.1219046318674515</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3307247525568542</v>
+        <v>0.4406989690382801</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.064227881556334</v>
       </c>
       <c r="O6">
-        <v>2.306305440560521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.050785890718771</v>
+        <v>0.7135928207234485</v>
       </c>
       <c r="C7">
-        <v>0.3226918106173571</v>
+        <v>0.08790412709609541</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03234106739669984</v>
+        <v>0.2623507762716386</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.52882475506712</v>
       </c>
       <c r="G7">
-        <v>0.0008381238782696046</v>
+        <v>0.6119796828308353</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.476240465644068</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03627503311596225</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7235079958869477</v>
       </c>
       <c r="L7">
-        <v>0.1256712691104767</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3456876854046769</v>
+        <v>0.4616240992090894</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.049057740054927</v>
       </c>
       <c r="O7">
-        <v>2.372260971420843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.476600312784683</v>
+        <v>0.8664006598370975</v>
       </c>
       <c r="C8">
-        <v>0.389698281026142</v>
+        <v>0.1052320568150122</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03270952586760489</v>
+        <v>0.3064973093901529</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>1.689714495587367</v>
       </c>
       <c r="G8">
-        <v>0.0008260982105514361</v>
+        <v>0.6427417588823658</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4807948040709249</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03429960689406464</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8798421476566318</v>
       </c>
       <c r="L8">
-        <v>0.1428028333335547</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4131769509470971</v>
+        <v>0.5548879140457004</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.9851152902266236</v>
       </c>
       <c r="O8">
-        <v>2.674001279888472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.351749022929766</v>
+        <v>1.171188681939327</v>
       </c>
       <c r="C9">
-        <v>0.5255399526370184</v>
+        <v>0.1395640394403301</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03353319076023498</v>
+        <v>0.3958861639419595</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>2.029534969708166</v>
       </c>
       <c r="G9">
-        <v>0.0008034957968987566</v>
+        <v>0.7155303694218418</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4968517543670856</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03075457190071962</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.19113828519454</v>
       </c>
       <c r="L9">
-        <v>0.1786581984087405</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5523281666554283</v>
+        <v>0.7420284095799872</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.871197224156532</v>
       </c>
       <c r="O9">
-        <v>3.314738996806071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.02993214368388</v>
+        <v>1.399646722438604</v>
       </c>
       <c r="C10">
-        <v>0.6298069884218762</v>
+        <v>0.1651704546174955</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03423191126047098</v>
+        <v>0.4637913785217123</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.297430282875183</v>
       </c>
       <c r="G10">
-        <v>0.0007873219306500666</v>
+        <v>0.778143253543476</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.5136810671622527</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02836587327855522</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.424169770960418</v>
       </c>
       <c r="L10">
-        <v>0.2068483769107416</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6604327307880382</v>
+        <v>0.8830749863740763</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7951964486824536</v>
       </c>
       <c r="O10">
-        <v>3.827021963271562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.348939643440588</v>
+        <v>1.504901752986655</v>
       </c>
       <c r="C11">
-        <v>0.6786801058780441</v>
+        <v>0.1769438724315791</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03457894937107664</v>
+        <v>0.4952926235997737</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.424087743718346</v>
       </c>
       <c r="G11">
-        <v>0.0007800146784001529</v>
+        <v>0.8089834454731744</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5225968049210366</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02732982791462124</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.531470727997601</v>
       </c>
       <c r="L11">
-        <v>0.2201965942526698</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7113405658485092</v>
+        <v>0.948246721880011</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.762462731629526</v>
       </c>
       <c r="O11">
-        <v>4.072147621480951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.471528238844996</v>
+        <v>1.544980611697014</v>
       </c>
       <c r="C12">
-        <v>0.697441142230133</v>
+        <v>0.1814238800768635</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03471547193531199</v>
+        <v>0.5073204496365378</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>2.472813548541666</v>
       </c>
       <c r="G12">
-        <v>0.0007772506376061096</v>
+        <v>0.8210347105033833</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5261693845659465</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02694513131610732</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.572320376657245</v>
       </c>
       <c r="L12">
-        <v>0.2253385759075002</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7309113915344483</v>
+        <v>0.9730917622533539</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7503475956754571</v>
       </c>
       <c r="O12">
-        <v>4.167008128095205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.445042216735146</v>
+        <v>1.536338574782803</v>
       </c>
       <c r="C13">
-        <v>0.6933885042215593</v>
+        <v>0.1804580037860433</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0346858258950864</v>
+        <v>0.5047254515126909</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.462284368369822</v>
       </c>
       <c r="G13">
-        <v>0.0007778458606712905</v>
+        <v>0.8184221079469864</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5253909754975012</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02702763717512635</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.563512494782316</v>
       </c>
       <c r="L13">
-        <v>0.2242270672284121</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7266826493554035</v>
+        <v>0.9677332078654786</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.752944067708615</v>
       </c>
       <c r="O13">
-        <v>4.146482392629849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.358987516824243</v>
+        <v>1.508194453203771</v>
       </c>
       <c r="C14">
-        <v>0.6802182063906628</v>
+        <v>0.1773119886041172</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03459007299429295</v>
+        <v>0.4962801088580093</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.428080696297641</v>
       </c>
       <c r="G14">
-        <v>0.000779787244097798</v>
+        <v>0.8099672360414445</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.5228866957087916</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02729802359085998</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.534826914607464</v>
       </c>
       <c r="L14">
-        <v>0.220617804181046</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7129445170226916</v>
+        <v>0.9502872872740156</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7614602962711352</v>
       </c>
       <c r="O14">
-        <v>4.079909160929304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.306518261116139</v>
+        <v>1.490985090071291</v>
       </c>
       <c r="C15">
-        <v>0.6721855875889844</v>
+        <v>0.1753879013663351</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03453211653583166</v>
+        <v>0.4911203313900714</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.407231693333841</v>
       </c>
       <c r="G15">
-        <v>0.0007809766610575745</v>
+        <v>0.8048379777774528</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.5213788000556576</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02746464804613957</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.517285409358095</v>
       </c>
       <c r="L15">
-        <v>0.2184187781544438</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7045691170716424</v>
+        <v>0.9396234137110753</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.766713745338059</v>
       </c>
       <c r="O15">
-        <v>4.039406010063516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.009318312625908</v>
+        <v>1.392797300073511</v>
       </c>
       <c r="C16">
-        <v>0.6266458353581186</v>
+        <v>0.1644038569737489</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03420989282255182</v>
+        <v>0.461745920958073</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.289255543095592</v>
       </c>
       <c r="G16">
-        <v>0.000787800145627146</v>
+        <v>0.776178032414407</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5131250271927428</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02843462900203075</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.417186030484629</v>
       </c>
       <c r="L16">
-        <v>0.2059875699069806</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6571442444929048</v>
+        <v>0.8788379032445235</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7973740172170487</v>
       </c>
       <c r="O16">
-        <v>3.81127017384776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.829869586036523</v>
+        <v>1.332923091703151</v>
       </c>
       <c r="C17">
-        <v>0.5991087458617415</v>
+        <v>0.157700029565234</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0340202908963394</v>
+        <v>0.4438897550277261</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>2.218159016238118</v>
       </c>
       <c r="G17">
-        <v>0.0007919962332310525</v>
+        <v>0.7592229969123565</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5083947365443322</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02904288136427358</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.356130950994213</v>
       </c>
       <c r="L17">
-        <v>0.1985036751559193</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6285233556079959</v>
+        <v>0.8418206464898077</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.8166651218790832</v>
       </c>
       <c r="O17">
-        <v>3.674610843686082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.727624729554805</v>
+        <v>1.298608116563798</v>
       </c>
       <c r="C18">
-        <v>0.5834026371113623</v>
+        <v>0.1538556832309865</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03391392073722277</v>
+        <v>0.4336761317876352</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.177712263150283</v>
       </c>
       <c r="G18">
-        <v>0.0007944147310200052</v>
+        <v>0.749690603723522</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5057916129030104</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.0293974702107791</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.321133449205718</v>
       </c>
       <c r="L18">
-        <v>0.194247688017029</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6122212565459577</v>
+        <v>0.820622916961689</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.827932961162599</v>
       </c>
       <c r="O18">
-        <v>3.597125299999902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.69316505674243</v>
+        <v>1.287009920343451</v>
       </c>
       <c r="C19">
-        <v>0.5781062740144591</v>
+        <v>0.1525559244307573</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03387834150813029</v>
+        <v>0.4302274005938429</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.164092135359624</v>
       </c>
       <c r="G19">
-        <v>0.0007952345726517982</v>
+        <v>0.7464998482200969</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5049299979123703</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02951833131620862</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.309303562203638</v>
       </c>
       <c r="L19">
-        <v>0.1928146870647964</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6067278602162745</v>
+        <v>0.8134612027143646</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.8317771542140875</v>
       </c>
       <c r="O19">
-        <v>3.571073513995884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.848870009638574</v>
+        <v>1.339283854719071</v>
       </c>
       <c r="C20">
-        <v>0.6020260892447311</v>
+        <v>0.1584124456248617</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03404019051279583</v>
+        <v>0.4457846210376175</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.225680674775745</v>
       </c>
       <c r="G20">
-        <v>0.000791549061272742</v>
+        <v>0.7610049160849002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5088860053896695</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0289776389924512</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.362617756553561</v>
       </c>
       <c r="L20">
-        <v>0.1992952428327754</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6315532510985378</v>
+        <v>0.8457513623378787</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8145936275527035</v>
       </c>
       <c r="O20">
-        <v>3.689040801403991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.384212934457594</v>
+        <v>1.516454812236788</v>
       </c>
       <c r="C21">
-        <v>0.684079343962253</v>
+        <v>0.1782354301607825</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0346180512423544</v>
+        <v>0.4987579304731895</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.438105800579208</v>
       </c>
       <c r="G21">
-        <v>0.0007792169662076906</v>
+        <v>0.8124402369636954</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.5236168060331892</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02721839442862528</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.543246411828193</v>
       </c>
       <c r="L21">
-        <v>0.2216754594309549</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7169713976298979</v>
+        <v>0.9554068990467215</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7589511296795202</v>
       </c>
       <c r="O21">
-        <v>4.099405450877754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.744669868484607</v>
+        <v>1.633550615712011</v>
       </c>
       <c r="C22">
-        <v>0.7392128892458345</v>
+        <v>0.1913191804089251</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03502603639153423</v>
+        <v>0.5339619253292085</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.581426729143487</v>
       </c>
       <c r="G22">
-        <v>0.0007711726353349935</v>
+        <v>0.8482466815216441</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5343969191825266</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02611329701160514</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.662579522588516</v>
       </c>
       <c r="L22">
-        <v>0.2368179214453789</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7745313438484729</v>
+        <v>1.028051233422026</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7242283821615345</v>
       </c>
       <c r="O22">
-        <v>4.379647000773673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.551215923019242</v>
+        <v>1.57092443076138</v>
       </c>
       <c r="C23">
-        <v>0.7096317448981324</v>
+        <v>0.1843230822880884</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03480516542296042</v>
+        <v>0.5151156132510053</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.50449660399218</v>
       </c>
       <c r="G23">
-        <v>0.0007754661858027469</v>
+        <v>0.8289237536752836</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.5285325326140224</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02669889435273198</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.598760932126083</v>
       </c>
       <c r="L23">
-        <v>0.2286845171093717</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7436353833750076</v>
+        <v>0.9891827243978639</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7426046291098309</v>
       </c>
       <c r="O23">
-        <v>4.228863804131834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.840277064832435</v>
+        <v>1.336407821147276</v>
       </c>
       <c r="C24">
-        <v>0.6007067713375989</v>
+        <v>0.1580903321582525</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03403118575643482</v>
+        <v>0.4449277905899223</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.222278806666992</v>
       </c>
       <c r="G24">
-        <v>0.0007917512084029529</v>
+        <v>0.7601986423893834</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5086635413696285</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02900711984408577</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.359684750523343</v>
       </c>
       <c r="L24">
-        <v>0.1989372308018886</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6301829638153436</v>
+        <v>0.8439740256631438</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8155295996156013</v>
       </c>
       <c r="O24">
-        <v>3.682513670179134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.109675659679169</v>
+        <v>1.088047620094812</v>
       </c>
       <c r="C25">
-        <v>0.4881488114224624</v>
+        <v>0.130222131004615</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03329655339241877</v>
+        <v>0.3713518258298691</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.93466538715883</v>
       </c>
       <c r="G25">
-        <v>0.0008095213003271922</v>
+        <v>0.6943531166212296</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4916771781164186</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03167688730852447</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.106276354060043</v>
       </c>
       <c r="L25">
-        <v>0.1686713814043941</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.513790977147444</v>
+        <v>0.6908518962123011</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9007178327039078</v>
       </c>
       <c r="O25">
-        <v>3.135038726124066</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9081028390627353</v>
+        <v>0.3942060214836545</v>
       </c>
       <c r="C2">
-        <v>0.109945115106612</v>
+        <v>0.0324612055215141</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3186317839818003</v>
+        <v>0.3736801726878198</v>
       </c>
       <c r="F2">
-        <v>1.734835642521389</v>
+        <v>2.484156628171874</v>
       </c>
       <c r="G2">
-        <v>0.6518672088784285</v>
+        <v>0.9701951879715125</v>
       </c>
       <c r="H2">
-        <v>0.4824873065282418</v>
+        <v>0.9989775711007809</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03378608666836191</v>
+        <v>0.07164481598474115</v>
       </c>
       <c r="K2">
-        <v>0.9224709299442964</v>
+        <v>0.3497029370666382</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5804121555097765</v>
+        <v>0.4015363223403909</v>
       </c>
       <c r="N2">
-        <v>0.9685424019432638</v>
+        <v>1.962409002470153</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7875101048083195</v>
+        <v>0.3610762776451395</v>
       </c>
       <c r="C3">
-        <v>0.09629854338815846</v>
+        <v>0.0283801183380632</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2836395342172082</v>
+        <v>0.3667164599643584</v>
       </c>
       <c r="F3">
-        <v>1.605730816445785</v>
+        <v>2.46711159199144</v>
       </c>
       <c r="G3">
-        <v>0.6263072418928886</v>
+        <v>0.9702683033993793</v>
       </c>
       <c r="H3">
-        <v>0.4781015105454856</v>
+        <v>1.003658630097249</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03529995925303053</v>
+        <v>0.07228467223535873</v>
       </c>
       <c r="K3">
-        <v>0.7991589576645026</v>
+        <v>0.315127941958508</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5066835969951811</v>
+        <v>0.3835852324529441</v>
       </c>
       <c r="N3">
-        <v>1.017459916096776</v>
+        <v>1.98247249876113</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7139957375139545</v>
+        <v>0.340887356978044</v>
       </c>
       <c r="C4">
-        <v>0.08794995524053206</v>
+        <v>0.02586522580301676</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2624664548722535</v>
+        <v>0.3626099348523226</v>
       </c>
       <c r="F4">
-        <v>1.529238925459964</v>
+        <v>2.457950600409802</v>
       </c>
       <c r="G4">
-        <v>0.6120547644970316</v>
+        <v>0.9708998785524443</v>
       </c>
       <c r="H4">
-        <v>0.4762487322289104</v>
+        <v>1.006963463108775</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03626961065435141</v>
+        <v>0.07269834371115769</v>
       </c>
       <c r="K4">
-        <v>0.7239205210126727</v>
+        <v>0.2940010523925451</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4618694143374924</v>
+        <v>0.3727590154562108</v>
       </c>
       <c r="N4">
-        <v>1.048881842266169</v>
+        <v>1.995439591029999</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6841523681128479</v>
+        <v>0.3326988623188925</v>
       </c>
       <c r="C5">
-        <v>0.08455325709311978</v>
+        <v>0.02483810421168187</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2539098240908757</v>
+        <v>0.3609791079356626</v>
       </c>
       <c r="F5">
-        <v>1.498719912846482</v>
+        <v>2.454545457449626</v>
       </c>
       <c r="G5">
-        <v>0.6065879390397981</v>
+        <v>0.9713045748818701</v>
       </c>
       <c r="H5">
-        <v>0.4756954296103117</v>
+        <v>1.00841850649141</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0366746246609746</v>
+        <v>0.07287214919222018</v>
       </c>
       <c r="K5">
-        <v>0.6933604007808327</v>
+        <v>0.2854175723223022</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4437087669733373</v>
+        <v>0.3683965988942148</v>
       </c>
       <c r="N5">
-        <v>1.062025249631887</v>
+        <v>2.000886655846905</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6792032716084009</v>
+        <v>0.3313415099620158</v>
       </c>
       <c r="C6">
-        <v>0.08398950250625603</v>
+        <v>0.02466741369308068</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2524931290431596</v>
+        <v>0.3607108861072987</v>
       </c>
       <c r="F6">
-        <v>1.493690320689424</v>
+        <v>2.453999847271845</v>
       </c>
       <c r="G6">
-        <v>0.6057001833062259</v>
+        <v>0.9713806665561862</v>
       </c>
       <c r="H6">
-        <v>0.4756154690220313</v>
+        <v>1.008666656484422</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03674246714079299</v>
+        <v>0.07290132544111749</v>
       </c>
       <c r="K6">
-        <v>0.6882914186896159</v>
+        <v>0.2839938614572901</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4406989690382801</v>
+        <v>0.3676752072174594</v>
       </c>
       <c r="N6">
-        <v>1.064227881556334</v>
+        <v>2.001800971383375</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7135928207234485</v>
+        <v>0.3407767672817101</v>
       </c>
       <c r="C7">
-        <v>0.08790412709609541</v>
+        <v>0.02585138292153033</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2623507762716386</v>
+        <v>0.3625877683180505</v>
       </c>
       <c r="F7">
-        <v>1.52882475506712</v>
+        <v>2.457903349326898</v>
       </c>
       <c r="G7">
-        <v>0.6119796828308353</v>
+        <v>0.9709047401876205</v>
       </c>
       <c r="H7">
-        <v>0.476240465644068</v>
+        <v>1.006982647833397</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03627503311596225</v>
+        <v>0.07270066653051499</v>
       </c>
       <c r="K7">
-        <v>0.7235079958869477</v>
+        <v>0.2938851874803987</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4616240992090894</v>
+        <v>0.37269998239465</v>
       </c>
       <c r="N7">
-        <v>1.049057740054927</v>
+        <v>1.995512392711408</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8664006598370975</v>
+        <v>0.382751272776062</v>
       </c>
       <c r="C8">
-        <v>0.1052320568150122</v>
+        <v>0.03105593348503533</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3064973093901529</v>
+        <v>0.3712439970607804</v>
       </c>
       <c r="F8">
-        <v>1.689714495587367</v>
+        <v>2.478008660675428</v>
       </c>
       <c r="G8">
-        <v>0.6427417588823658</v>
+        <v>0.9700985080008735</v>
       </c>
       <c r="H8">
-        <v>0.4807948040709249</v>
+        <v>1.000502223823872</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03429960689406464</v>
+        <v>0.07186112285842805</v>
       </c>
       <c r="K8">
-        <v>0.8798421476566318</v>
+        <v>0.3377603409381322</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5548879140457004</v>
+        <v>0.395306204289966</v>
       </c>
       <c r="N8">
-        <v>0.9851152902266236</v>
+        <v>1.969192351206075</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.171188681939327</v>
+        <v>0.4662713171084647</v>
       </c>
       <c r="C9">
-        <v>0.1395640394403301</v>
+        <v>0.04119029715448619</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3958861639419595</v>
+        <v>0.389560063378525</v>
       </c>
       <c r="F9">
-        <v>2.029534969708166</v>
+        <v>2.527795256360761</v>
       </c>
       <c r="G9">
-        <v>0.7155303694218418</v>
+        <v>0.9731829793276745</v>
       </c>
       <c r="H9">
-        <v>0.4968517543670856</v>
+        <v>0.9912112799397619</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03075457190071962</v>
+        <v>0.07037971122753506</v>
       </c>
       <c r="K9">
-        <v>1.19113828519454</v>
+        <v>0.4246079302608337</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7420284095799872</v>
+        <v>0.4411884769654932</v>
       </c>
       <c r="N9">
-        <v>0.871197224156532</v>
+        <v>1.922723503694066</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.399646722438604</v>
+        <v>0.5283701808154717</v>
       </c>
       <c r="C10">
-        <v>0.1651704546174955</v>
+        <v>0.04859350886988523</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4637913785217123</v>
+        <v>0.4038344510296668</v>
       </c>
       <c r="F10">
-        <v>2.297430282875183</v>
+        <v>2.570707848299108</v>
       </c>
       <c r="G10">
-        <v>0.778143253543476</v>
+        <v>0.9783097179580977</v>
       </c>
       <c r="H10">
-        <v>0.5136810671622527</v>
+        <v>0.9864694619441394</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02836587327855522</v>
+        <v>0.06939171421968515</v>
       </c>
       <c r="K10">
-        <v>1.424169770960418</v>
+        <v>0.4889103176485889</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8830749863740763</v>
+        <v>0.4758450642645613</v>
       </c>
       <c r="N10">
-        <v>0.7951964486824536</v>
+        <v>1.89172204259901</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.504901752986655</v>
+        <v>0.5567809835802962</v>
       </c>
       <c r="C11">
-        <v>0.1769438724315791</v>
+        <v>0.05195250156413067</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4952926235997737</v>
+        <v>0.4105058818908063</v>
       </c>
       <c r="F11">
-        <v>2.424087743718346</v>
+        <v>2.591609895431532</v>
       </c>
       <c r="G11">
-        <v>0.8089834454731744</v>
+        <v>0.9812668191596003</v>
       </c>
       <c r="H11">
-        <v>0.5225968049210366</v>
+        <v>0.9847651696293838</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02732982791462124</v>
+        <v>0.06896401707358679</v>
       </c>
       <c r="K11">
-        <v>1.531470727997601</v>
+        <v>0.518271697426087</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.948246721880011</v>
+        <v>0.4918173294867145</v>
       </c>
       <c r="N11">
-        <v>0.762462731629526</v>
+        <v>1.878300957123088</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.544980611697014</v>
+        <v>0.5675625564562097</v>
       </c>
       <c r="C12">
-        <v>0.1814238800768635</v>
+        <v>0.05322321309591871</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5073204496365378</v>
+        <v>0.4130577355225427</v>
       </c>
       <c r="F12">
-        <v>2.472813548541666</v>
+        <v>2.599723745692472</v>
       </c>
       <c r="G12">
-        <v>0.8210347105033833</v>
+        <v>0.9824767242135835</v>
       </c>
       <c r="H12">
-        <v>0.5261693845659465</v>
+        <v>0.9841849268745761</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02694513131610732</v>
+        <v>0.06880518543839376</v>
       </c>
       <c r="K12">
-        <v>1.572320376657245</v>
+        <v>0.5294058177885859</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9730917622533539</v>
+        <v>0.4978952999078388</v>
       </c>
       <c r="N12">
-        <v>0.7503475956754571</v>
+        <v>1.873316859361708</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.536338574782803</v>
+        <v>0.565239531836113</v>
       </c>
       <c r="C13">
-        <v>0.1804580037860433</v>
+        <v>0.05294959903012852</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5047254515126909</v>
+        <v>0.4125070137914264</v>
       </c>
       <c r="F13">
-        <v>2.462284368369822</v>
+        <v>2.597967443623219</v>
       </c>
       <c r="G13">
-        <v>0.8184221079469864</v>
+        <v>0.9822121375999586</v>
       </c>
       <c r="H13">
-        <v>0.5253909754975012</v>
+        <v>0.9843069951774339</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02702763717512635</v>
+        <v>0.06883925354246001</v>
       </c>
       <c r="K13">
-        <v>1.563512494782316</v>
+        <v>0.5270071949895794</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9677332078654786</v>
+        <v>0.4965849847473649</v>
       </c>
       <c r="N13">
-        <v>0.752944067708615</v>
+        <v>1.874385905033925</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.508194453203771</v>
+        <v>0.5576675300978025</v>
       </c>
       <c r="C14">
-        <v>0.1773119886041172</v>
+        <v>0.05205706917311659</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4962801088580093</v>
+        <v>0.410715313157219</v>
       </c>
       <c r="F14">
-        <v>2.428080696297641</v>
+        <v>2.592273443817859</v>
       </c>
       <c r="G14">
-        <v>0.8099672360414445</v>
+        <v>0.9813645512910512</v>
       </c>
       <c r="H14">
-        <v>0.5228866957087916</v>
+        <v>0.984716127138384</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02729802359085998</v>
+        <v>0.06895088720504061</v>
       </c>
       <c r="K14">
-        <v>1.534826914607464</v>
+        <v>0.5191873966471974</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9502872872740156</v>
+        <v>0.4923167748164445</v>
       </c>
       <c r="N14">
-        <v>0.7614602962711352</v>
+        <v>1.877888943890568</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.490985090071291</v>
+        <v>0.553032451071374</v>
       </c>
       <c r="C15">
-        <v>0.1753879013663351</v>
+        <v>0.05151020381632065</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4911203313900714</v>
+        <v>0.409621167450382</v>
       </c>
       <c r="F15">
-        <v>2.407231693333841</v>
+        <v>2.58881158479204</v>
       </c>
       <c r="G15">
-        <v>0.8048379777774528</v>
+        <v>0.9808571233314183</v>
       </c>
       <c r="H15">
-        <v>0.5213788000556576</v>
+        <v>0.9849752156657843</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02746464804613957</v>
+        <v>0.06901967342665438</v>
       </c>
       <c r="K15">
-        <v>1.517285409358095</v>
+        <v>0.5143995704081021</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9396234137110753</v>
+        <v>0.4897062269026264</v>
       </c>
       <c r="N15">
-        <v>0.766713745338059</v>
+        <v>1.88004744649961</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.392797300073511</v>
+        <v>0.5265167020005208</v>
       </c>
       <c r="C16">
-        <v>0.1644038569737489</v>
+        <v>0.04837381392738394</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.461745920958073</v>
+        <v>0.4034020328051682</v>
       </c>
       <c r="F16">
-        <v>2.289255543095592</v>
+        <v>2.569369648340682</v>
       </c>
       <c r="G16">
-        <v>0.776178032414407</v>
+        <v>0.9781290609876265</v>
       </c>
       <c r="H16">
-        <v>0.5131250271927428</v>
+        <v>0.986589954822179</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02843462900203075</v>
+        <v>0.06942010291038248</v>
       </c>
       <c r="K16">
-        <v>1.417186030484629</v>
+        <v>0.486993676760278</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8788379032445235</v>
+        <v>0.4748053905471892</v>
       </c>
       <c r="N16">
-        <v>0.7973740172170487</v>
+        <v>1.892612871737068</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.332923091703151</v>
+        <v>0.5102914003186925</v>
       </c>
       <c r="C17">
-        <v>0.157700029565234</v>
+        <v>0.04644749121386837</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4438897550277261</v>
+        <v>0.3996323270707691</v>
       </c>
       <c r="F17">
-        <v>2.218159016238118</v>
+        <v>2.557796420205833</v>
       </c>
       <c r="G17">
-        <v>0.7592229969123565</v>
+        <v>0.9766157196258263</v>
       </c>
       <c r="H17">
-        <v>0.5083947365443322</v>
+        <v>0.9876965320076607</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02904288136427358</v>
+        <v>0.06967132399611886</v>
       </c>
       <c r="K17">
-        <v>1.356130950994213</v>
+        <v>0.470209054090958</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8418206464898077</v>
+        <v>0.4657170943761813</v>
       </c>
       <c r="N17">
-        <v>0.8166651218790832</v>
+        <v>1.900496047259743</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.298608116563798</v>
+        <v>0.5009742717145969</v>
       </c>
       <c r="C18">
-        <v>0.1538556832309865</v>
+        <v>0.04533869662007817</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4336761317876352</v>
+        <v>0.3974808441888911</v>
       </c>
       <c r="F18">
-        <v>2.177712263150283</v>
+        <v>2.551269773925696</v>
       </c>
       <c r="G18">
-        <v>0.749690603723522</v>
+        <v>0.9758040911919039</v>
       </c>
       <c r="H18">
-        <v>0.5057916129030104</v>
+        <v>0.9883756225171538</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0293974702107791</v>
+        <v>0.06981786666279044</v>
       </c>
       <c r="K18">
-        <v>1.321133449205718</v>
+        <v>0.4605653394444005</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.820622916961689</v>
+        <v>0.4605092197879515</v>
       </c>
       <c r="N18">
-        <v>0.827932961162599</v>
+        <v>1.905094390315568</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.287009920343451</v>
+        <v>0.4978222760327355</v>
       </c>
       <c r="C19">
-        <v>0.1525559244307573</v>
+        <v>0.04496313635235083</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4302274005938429</v>
+        <v>0.3967552680870696</v>
       </c>
       <c r="F19">
-        <v>2.164092135359624</v>
+        <v>2.549082282000683</v>
       </c>
       <c r="G19">
-        <v>0.7464998482200969</v>
+        <v>0.9755393799919148</v>
       </c>
       <c r="H19">
-        <v>0.5049299979123703</v>
+        <v>0.9886128695691951</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02951833131620862</v>
+        <v>0.06986783503639993</v>
       </c>
       <c r="K19">
-        <v>1.309303562203638</v>
+        <v>0.4573019282072721</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8134612027143646</v>
+        <v>0.4587492710681929</v>
       </c>
       <c r="N19">
-        <v>0.8317771542140875</v>
+        <v>1.906662323174778</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.339283854719071</v>
+        <v>0.5120170362501995</v>
       </c>
       <c r="C20">
-        <v>0.1584124456248617</v>
+        <v>0.046652636952075</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4457846210376175</v>
+        <v>0.4000318853334832</v>
       </c>
       <c r="F20">
-        <v>2.225680674775745</v>
+        <v>2.559014957929037</v>
       </c>
       <c r="G20">
-        <v>0.7610049160849002</v>
+        <v>0.9767707294244303</v>
       </c>
       <c r="H20">
-        <v>0.5088860053896695</v>
+        <v>0.9875743241342576</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0289776389924512</v>
+        <v>0.06964436922669126</v>
       </c>
       <c r="K20">
-        <v>1.362617756553561</v>
+        <v>0.4719947354377325</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8457513623378787</v>
+        <v>0.4666825444994913</v>
       </c>
       <c r="N20">
-        <v>0.8145936275527035</v>
+        <v>1.899650229449175</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.516454812236788</v>
+        <v>0.5598909877232927</v>
       </c>
       <c r="C21">
-        <v>0.1782354301607825</v>
+        <v>0.05231926123285291</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4987579304731895</v>
+        <v>0.4112408867311004</v>
       </c>
       <c r="F21">
-        <v>2.438105800579208</v>
+        <v>2.593940515929518</v>
       </c>
       <c r="G21">
-        <v>0.8124402369636954</v>
+        <v>0.9816110602271948</v>
       </c>
       <c r="H21">
-        <v>0.5236168060331892</v>
+        <v>0.9845941871860617</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02721839442862528</v>
+        <v>0.0689180127933966</v>
       </c>
       <c r="K21">
-        <v>1.543246411828193</v>
+        <v>0.5214838391077876</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9554068990467215</v>
+        <v>0.4935696485959369</v>
       </c>
       <c r="N21">
-        <v>0.7589511296795202</v>
+        <v>1.876857350718243</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.633550615712011</v>
+        <v>0.5913134424070279</v>
       </c>
       <c r="C22">
-        <v>0.1913191804089251</v>
+        <v>0.05601534546484288</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5339619253292085</v>
+        <v>0.4187153836645194</v>
       </c>
       <c r="F22">
-        <v>2.581426729143487</v>
+        <v>2.617924616029086</v>
       </c>
       <c r="G22">
-        <v>0.8482466815216441</v>
+        <v>0.9852998730616775</v>
       </c>
       <c r="H22">
-        <v>0.5343969191825266</v>
+        <v>0.9830261693458908</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02611329701160514</v>
+        <v>0.06846152960196639</v>
       </c>
       <c r="K22">
-        <v>1.662579522588516</v>
+        <v>0.5539186832099858</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.028051233422026</v>
+        <v>0.5113145199879483</v>
       </c>
       <c r="N22">
-        <v>0.7242283821615345</v>
+        <v>1.862533207687907</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.57092443076138</v>
+        <v>0.5745304984561415</v>
       </c>
       <c r="C23">
-        <v>0.1843230822880884</v>
+        <v>0.05404335305323116</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5151156132510053</v>
+        <v>0.4147125115637991</v>
       </c>
       <c r="F23">
-        <v>2.50449660399218</v>
+        <v>2.605017829492809</v>
       </c>
       <c r="G23">
-        <v>0.8289237536752836</v>
+        <v>0.9832829287117875</v>
       </c>
       <c r="H23">
-        <v>0.5285325326140224</v>
+        <v>0.9838283009168407</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02669889435273198</v>
+        <v>0.06870349471851256</v>
       </c>
       <c r="K23">
-        <v>1.598760932126083</v>
+        <v>0.5365993494510519</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9891827243978639</v>
+        <v>0.5018279948675683</v>
       </c>
       <c r="N23">
-        <v>0.7426046291098309</v>
+        <v>1.870125851949069</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.336407821147276</v>
+        <v>0.5112368419228801</v>
       </c>
       <c r="C24">
-        <v>0.1580903321582525</v>
+        <v>0.04655989469465283</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4449277905899223</v>
+        <v>0.3998511959133069</v>
       </c>
       <c r="F24">
-        <v>2.222278806666992</v>
+        <v>2.558463661564943</v>
       </c>
       <c r="G24">
-        <v>0.7601986423893834</v>
+        <v>0.9767004675605051</v>
       </c>
       <c r="H24">
-        <v>0.5086635413696285</v>
+        <v>0.9876294406647759</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02900711984408577</v>
+        <v>0.06965654889823503</v>
       </c>
       <c r="K24">
-        <v>1.359684750523343</v>
+        <v>0.4711874102341369</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8439740256631438</v>
+        <v>0.466246011201541</v>
       </c>
       <c r="N24">
-        <v>0.8155295996156013</v>
+        <v>1.900032417471561</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.088047620094812</v>
+        <v>0.443547576179725</v>
       </c>
       <c r="C25">
-        <v>0.130222131004615</v>
+        <v>0.03845623725362657</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3713518258298691</v>
+        <v>0.3844615036858841</v>
       </c>
       <c r="F25">
-        <v>1.93466538715883</v>
+        <v>2.513215630703058</v>
       </c>
       <c r="G25">
-        <v>0.6943531166212296</v>
+        <v>0.9718473874011408</v>
       </c>
       <c r="H25">
-        <v>0.4916771781164186</v>
+        <v>0.9933587932158474</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03167688730852447</v>
+        <v>0.07076283122657223</v>
       </c>
       <c r="K25">
-        <v>1.106276354060043</v>
+        <v>0.4010265350616748</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6908518962123011</v>
+        <v>0.4286098999140151</v>
       </c>
       <c r="N25">
-        <v>0.9007178327039078</v>
+        <v>1.934743502863377</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3942060214836545</v>
+        <v>0.9081028390627921</v>
       </c>
       <c r="C2">
-        <v>0.0324612055215141</v>
+        <v>0.109945115106612</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3736801726878198</v>
+        <v>0.3186317839818074</v>
       </c>
       <c r="F2">
-        <v>2.484156628171874</v>
+        <v>1.734835642521389</v>
       </c>
       <c r="G2">
-        <v>0.9701951879715125</v>
+        <v>0.6518672088784285</v>
       </c>
       <c r="H2">
-        <v>0.9989775711007809</v>
+        <v>0.482487306528256</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07164481598474115</v>
+        <v>0.03378608666840943</v>
       </c>
       <c r="K2">
-        <v>0.3497029370666382</v>
+        <v>0.9224709299443248</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4015363223403909</v>
+        <v>0.5804121555097836</v>
       </c>
       <c r="N2">
-        <v>1.962409002470153</v>
+        <v>0.9685424019432567</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3610762776451395</v>
+        <v>0.7875101048083764</v>
       </c>
       <c r="C3">
-        <v>0.0283801183380632</v>
+        <v>0.09629854338805899</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3667164599643584</v>
+        <v>0.2836395342172011</v>
       </c>
       <c r="F3">
-        <v>2.46711159199144</v>
+        <v>1.605730816445799</v>
       </c>
       <c r="G3">
-        <v>0.9702683033993793</v>
+        <v>0.6263072418928886</v>
       </c>
       <c r="H3">
-        <v>1.003658630097249</v>
+        <v>0.4781015105454856</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07228467223535873</v>
+        <v>0.0352999592530292</v>
       </c>
       <c r="K3">
-        <v>0.315127941958508</v>
+        <v>0.799158957664531</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3835852324529441</v>
+        <v>0.5066835969951811</v>
       </c>
       <c r="N3">
-        <v>1.98247249876113</v>
+        <v>1.017459916096769</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.340887356978044</v>
+        <v>0.7139957375139545</v>
       </c>
       <c r="C4">
-        <v>0.02586522580301676</v>
+        <v>0.0879499552404468</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3626099348523226</v>
+        <v>0.2624664548722535</v>
       </c>
       <c r="F4">
-        <v>2.457950600409802</v>
+        <v>1.529238925459936</v>
       </c>
       <c r="G4">
-        <v>0.9708998785524443</v>
+        <v>0.6120547644970316</v>
       </c>
       <c r="H4">
-        <v>1.006963463108775</v>
+        <v>0.4762487322290525</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07269834371115769</v>
+        <v>0.03626961065432521</v>
       </c>
       <c r="K4">
-        <v>0.2940010523925451</v>
+        <v>0.7239205210126016</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3727590154562108</v>
+        <v>0.4618694143374853</v>
       </c>
       <c r="N4">
-        <v>1.995439591029999</v>
+        <v>1.048881842266191</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3326988623188925</v>
+        <v>0.68415236811299</v>
       </c>
       <c r="C5">
-        <v>0.02483810421168187</v>
+        <v>0.08455325709334716</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3609791079356626</v>
+        <v>0.2539098240908899</v>
       </c>
       <c r="F5">
-        <v>2.454545457449626</v>
+        <v>1.498719912846497</v>
       </c>
       <c r="G5">
-        <v>0.9713045748818701</v>
+        <v>0.6065879390398266</v>
       </c>
       <c r="H5">
-        <v>1.00841850649141</v>
+        <v>0.4756954296103402</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07287214919222018</v>
+        <v>0.03667462466104521</v>
       </c>
       <c r="K5">
-        <v>0.2854175723223022</v>
+        <v>0.6933604007809038</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3683965988942148</v>
+        <v>0.4437087669733302</v>
       </c>
       <c r="N5">
-        <v>2.000886655846905</v>
+        <v>1.062025249631859</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3313415099620158</v>
+        <v>0.6792032716084009</v>
       </c>
       <c r="C6">
-        <v>0.02466741369308068</v>
+        <v>0.08398950250624182</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3607108861072987</v>
+        <v>0.2524931290431809</v>
       </c>
       <c r="F6">
-        <v>2.453999847271845</v>
+        <v>1.493690320689424</v>
       </c>
       <c r="G6">
-        <v>0.9713806665561862</v>
+        <v>0.6057001833062401</v>
       </c>
       <c r="H6">
-        <v>1.008666656484422</v>
+        <v>0.4756154690220313</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07290132544111749</v>
+        <v>0.03674246714079121</v>
       </c>
       <c r="K6">
-        <v>0.2839938614572901</v>
+        <v>0.6882914186896159</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3676752072174594</v>
+        <v>0.4406989690382659</v>
       </c>
       <c r="N6">
-        <v>2.001800971383375</v>
+        <v>1.064227881556345</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3407767672817101</v>
+        <v>0.7135928207233917</v>
       </c>
       <c r="C7">
-        <v>0.02585138292153033</v>
+        <v>0.08790412709609541</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3625877683180505</v>
+        <v>0.2623507762716386</v>
       </c>
       <c r="F7">
-        <v>2.457903349326898</v>
+        <v>1.52882475506712</v>
       </c>
       <c r="G7">
-        <v>0.9709047401876205</v>
+        <v>0.6119796828308353</v>
       </c>
       <c r="H7">
-        <v>1.006982647833397</v>
+        <v>0.476240465644068</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07270066653051499</v>
+        <v>0.03627503311590852</v>
       </c>
       <c r="K7">
-        <v>0.2938851874803987</v>
+        <v>0.7235079958869761</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.37269998239465</v>
+        <v>0.4616240992091107</v>
       </c>
       <c r="N7">
-        <v>1.995512392711408</v>
+        <v>1.04905774005486</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.382751272776062</v>
+        <v>0.8664006598371827</v>
       </c>
       <c r="C8">
-        <v>0.03105593348503533</v>
+        <v>0.1052320568150265</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3712439970607804</v>
+        <v>0.3064973093901742</v>
       </c>
       <c r="F8">
-        <v>2.478008660675428</v>
+        <v>1.689714495587353</v>
       </c>
       <c r="G8">
-        <v>0.9700985080008735</v>
+        <v>0.6427417588823658</v>
       </c>
       <c r="H8">
-        <v>1.000502223823872</v>
+        <v>0.4807948040709249</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07186112285842805</v>
+        <v>0.03429960689417966</v>
       </c>
       <c r="K8">
-        <v>0.3377603409381322</v>
+        <v>0.8798421476566034</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.395306204289966</v>
+        <v>0.5548879140456719</v>
       </c>
       <c r="N8">
-        <v>1.969192351206075</v>
+        <v>0.9851152902265703</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4662713171084647</v>
+        <v>1.171188681939469</v>
       </c>
       <c r="C9">
-        <v>0.04119029715448619</v>
+        <v>0.1395640394402449</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.389560063378525</v>
+        <v>0.3958861639419382</v>
       </c>
       <c r="F9">
-        <v>2.527795256360761</v>
+        <v>2.029534969708152</v>
       </c>
       <c r="G9">
-        <v>0.9731829793276745</v>
+        <v>0.7155303694217707</v>
       </c>
       <c r="H9">
-        <v>0.9912112799397619</v>
+        <v>0.4968517543671993</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07037971122753506</v>
+        <v>0.03075457190066277</v>
       </c>
       <c r="K9">
-        <v>0.4246079302608337</v>
+        <v>1.191138285194455</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4411884769654932</v>
+        <v>0.7420284095799872</v>
       </c>
       <c r="N9">
-        <v>1.922723503694066</v>
+        <v>0.8711972241566066</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5283701808154717</v>
+        <v>1.399646722438575</v>
       </c>
       <c r="C10">
-        <v>0.04859350886988523</v>
+        <v>0.1651704546176092</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4038344510296668</v>
+        <v>0.4637913785217478</v>
       </c>
       <c r="F10">
-        <v>2.570707848299108</v>
+        <v>2.297430282875169</v>
       </c>
       <c r="G10">
-        <v>0.9783097179580977</v>
+        <v>0.7781432535435329</v>
       </c>
       <c r="H10">
-        <v>0.9864694619441394</v>
+        <v>0.5136810671621532</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06939171421968515</v>
+        <v>0.02836587327848683</v>
       </c>
       <c r="K10">
-        <v>0.4889103176485889</v>
+        <v>1.424169770960475</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4758450642645613</v>
+        <v>0.8830749863740621</v>
       </c>
       <c r="N10">
-        <v>1.89172204259901</v>
+        <v>0.7951964486824323</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5567809835802962</v>
+        <v>1.504901752986683</v>
       </c>
       <c r="C11">
-        <v>0.05195250156413067</v>
+        <v>0.1769438724315791</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4105058818908063</v>
+        <v>0.4952926235997666</v>
       </c>
       <c r="F11">
-        <v>2.591609895431532</v>
+        <v>2.424087743718346</v>
       </c>
       <c r="G11">
-        <v>0.9812668191596003</v>
+        <v>0.8089834454731317</v>
       </c>
       <c r="H11">
-        <v>0.9847651696293838</v>
+        <v>0.5225968049210223</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06896401707358679</v>
+        <v>0.02732982791473448</v>
       </c>
       <c r="K11">
-        <v>0.518271697426087</v>
+        <v>1.531470727997686</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4918173294867145</v>
+        <v>0.9482467218800039</v>
       </c>
       <c r="N11">
-        <v>1.878300957123088</v>
+        <v>0.7624627316295083</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5675625564562097</v>
+        <v>1.544980611696843</v>
       </c>
       <c r="C12">
-        <v>0.05322321309591871</v>
+        <v>0.1814238800771051</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4130577355225427</v>
+        <v>0.507320449636552</v>
       </c>
       <c r="F12">
-        <v>2.599723745692472</v>
+        <v>2.472813548541694</v>
       </c>
       <c r="G12">
-        <v>0.9824767242135835</v>
+        <v>0.8210347105034828</v>
       </c>
       <c r="H12">
-        <v>0.9841849268745761</v>
+        <v>0.5261693845658328</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06880518543839376</v>
+        <v>0.02694513131605447</v>
       </c>
       <c r="K12">
-        <v>0.5294058177885859</v>
+        <v>1.572320376657188</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4978952999078388</v>
+        <v>0.9730917622533539</v>
       </c>
       <c r="N12">
-        <v>1.873316859361708</v>
+        <v>0.7503475956754606</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.565239531836113</v>
+        <v>1.536338574782775</v>
       </c>
       <c r="C13">
-        <v>0.05294959903012852</v>
+        <v>0.1804580037860433</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4125070137914264</v>
+        <v>0.5047254515127335</v>
       </c>
       <c r="F13">
-        <v>2.597967443623219</v>
+        <v>2.462284368369822</v>
       </c>
       <c r="G13">
-        <v>0.9822121375999586</v>
+        <v>0.8184221079470149</v>
       </c>
       <c r="H13">
-        <v>0.9843069951774339</v>
+        <v>0.5253909754975012</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06883925354246001</v>
+        <v>0.02702763717500556</v>
       </c>
       <c r="K13">
-        <v>0.5270071949895794</v>
+        <v>1.563512494782373</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4965849847473649</v>
+        <v>0.9677332078654786</v>
       </c>
       <c r="N13">
-        <v>1.874385905033925</v>
+        <v>0.7529440677085972</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5576675300978025</v>
+        <v>1.50819445320397</v>
       </c>
       <c r="C14">
-        <v>0.05205706917311659</v>
+        <v>0.1773119886041172</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.410715313157219</v>
+        <v>0.4962801088580164</v>
       </c>
       <c r="F14">
-        <v>2.592273443817859</v>
+        <v>2.428080696297656</v>
       </c>
       <c r="G14">
-        <v>0.9813645512910512</v>
+        <v>0.8099672360414587</v>
       </c>
       <c r="H14">
-        <v>0.984716127138384</v>
+        <v>0.5228866957087916</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06895088720504061</v>
+        <v>0.02729802359079603</v>
       </c>
       <c r="K14">
-        <v>0.5191873966471974</v>
+        <v>1.534826914607436</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4923167748164445</v>
+        <v>0.9502872872740156</v>
       </c>
       <c r="N14">
-        <v>1.877888943890568</v>
+        <v>0.7614602962711245</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.553032451071374</v>
+        <v>1.490985090071376</v>
       </c>
       <c r="C15">
-        <v>0.05151020381632065</v>
+        <v>0.1753879013660935</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.409621167450382</v>
+        <v>0.4911203313900785</v>
       </c>
       <c r="F15">
-        <v>2.58881158479204</v>
+        <v>2.407231693333827</v>
       </c>
       <c r="G15">
-        <v>0.9808571233314183</v>
+        <v>0.8048379777774528</v>
       </c>
       <c r="H15">
-        <v>0.9849752156657843</v>
+        <v>0.5213788000557713</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06901967342665438</v>
+        <v>0.02746464804615067</v>
       </c>
       <c r="K15">
-        <v>0.5143995704081021</v>
+        <v>1.517285409358067</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4897062269026264</v>
+        <v>0.9396234137110824</v>
       </c>
       <c r="N15">
-        <v>1.88004744649961</v>
+        <v>0.7667137453380768</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5265167020005208</v>
+        <v>1.392797300073369</v>
       </c>
       <c r="C16">
-        <v>0.04837381392738394</v>
+        <v>0.1644038569738626</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4034020328051682</v>
+        <v>0.4617459209580446</v>
       </c>
       <c r="F16">
-        <v>2.569369648340682</v>
+        <v>2.289255543095592</v>
       </c>
       <c r="G16">
-        <v>0.9781290609876265</v>
+        <v>0.7761780324144354</v>
       </c>
       <c r="H16">
-        <v>0.986589954822179</v>
+        <v>0.5131250271927286</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06942010291038248</v>
+        <v>0.02843462900198634</v>
       </c>
       <c r="K16">
-        <v>0.486993676760278</v>
+        <v>1.417186030484686</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4748053905471892</v>
+        <v>0.8788379032445306</v>
       </c>
       <c r="N16">
-        <v>1.892612871737068</v>
+        <v>0.79737401721707</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5102914003186925</v>
+        <v>1.332923091703151</v>
       </c>
       <c r="C17">
-        <v>0.04644749121386837</v>
+        <v>0.1577000295652198</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3996323270707691</v>
+        <v>0.4438897550277261</v>
       </c>
       <c r="F17">
-        <v>2.557796420205833</v>
+        <v>2.218159016238133</v>
       </c>
       <c r="G17">
-        <v>0.9766157196258263</v>
+        <v>0.7592229969123991</v>
       </c>
       <c r="H17">
-        <v>0.9876965320076607</v>
+        <v>0.5083947365443322</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06967132399611886</v>
+        <v>0.02904288136431932</v>
       </c>
       <c r="K17">
-        <v>0.470209054090958</v>
+        <v>1.356130950994213</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4657170943761813</v>
+        <v>0.8418206464898006</v>
       </c>
       <c r="N17">
-        <v>1.900496047259743</v>
+        <v>0.8166651218790051</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5009742717145969</v>
+        <v>1.298608116563656</v>
       </c>
       <c r="C18">
-        <v>0.04533869662007817</v>
+        <v>0.1538556832307449</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3974808441888911</v>
+        <v>0.433676131787621</v>
       </c>
       <c r="F18">
-        <v>2.551269773925696</v>
+        <v>2.177712263150283</v>
       </c>
       <c r="G18">
-        <v>0.9758040911919039</v>
+        <v>0.7496906037235505</v>
       </c>
       <c r="H18">
-        <v>0.9883756225171538</v>
+        <v>0.5057916129030247</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06981786666279044</v>
+        <v>0.0293974702107791</v>
       </c>
       <c r="K18">
-        <v>0.4605653394444005</v>
+        <v>1.321133449205774</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4605092197879515</v>
+        <v>0.8206229169616961</v>
       </c>
       <c r="N18">
-        <v>1.905094390315568</v>
+        <v>0.8279329611625457</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4978222760327355</v>
+        <v>1.287009920343337</v>
       </c>
       <c r="C19">
-        <v>0.04496313635235083</v>
+        <v>0.1525559244307431</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3967552680870696</v>
+        <v>0.4302274005938358</v>
       </c>
       <c r="F19">
-        <v>2.549082282000683</v>
+        <v>2.164092135359624</v>
       </c>
       <c r="G19">
-        <v>0.9755393799919148</v>
+        <v>0.7464998482200684</v>
       </c>
       <c r="H19">
-        <v>0.9886128695691951</v>
+        <v>0.5049299979123845</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06986783503639993</v>
+        <v>0.02951833131619175</v>
       </c>
       <c r="K19">
-        <v>0.4573019282072721</v>
+        <v>1.309303562203553</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4587492710681929</v>
+        <v>0.8134612027143362</v>
       </c>
       <c r="N19">
-        <v>1.906662323174778</v>
+        <v>0.8317771542141372</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5120170362501995</v>
+        <v>1.339283854718929</v>
       </c>
       <c r="C20">
-        <v>0.046652636952075</v>
+        <v>0.1584124456248759</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4000318853334832</v>
+        <v>0.4457846210376317</v>
       </c>
       <c r="F20">
-        <v>2.559014957929037</v>
+        <v>2.225680674775745</v>
       </c>
       <c r="G20">
-        <v>0.9767707294244303</v>
+        <v>0.7610049160849144</v>
       </c>
       <c r="H20">
-        <v>0.9875743241342576</v>
+        <v>0.5088860053897974</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06964436922669126</v>
+        <v>0.02897763899250672</v>
       </c>
       <c r="K20">
-        <v>0.4719947354377325</v>
+        <v>1.362617756553533</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4666825444994913</v>
+        <v>0.8457513623378645</v>
       </c>
       <c r="N20">
-        <v>1.899650229449175</v>
+        <v>0.8145936275527106</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5598909877232927</v>
+        <v>1.516454812236589</v>
       </c>
       <c r="C21">
-        <v>0.05231926123285291</v>
+        <v>0.1782354301612514</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4112408867311004</v>
+        <v>0.498757930473154</v>
       </c>
       <c r="F21">
-        <v>2.593940515929518</v>
+        <v>2.438105800579208</v>
       </c>
       <c r="G21">
-        <v>0.9816110602271948</v>
+        <v>0.8124402369636528</v>
       </c>
       <c r="H21">
-        <v>0.9845941871860617</v>
+        <v>0.5236168060331892</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0689180127933966</v>
+        <v>0.0272183944286315</v>
       </c>
       <c r="K21">
-        <v>0.5214838391077876</v>
+        <v>1.54324641182825</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4935696485959369</v>
+        <v>0.9554068990467286</v>
       </c>
       <c r="N21">
-        <v>1.876857350718243</v>
+        <v>0.7589511296795095</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5913134424070279</v>
+        <v>1.633550615712096</v>
       </c>
       <c r="C22">
-        <v>0.05601534546484288</v>
+        <v>0.1913191804090246</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4187153836645194</v>
+        <v>0.5339619253292227</v>
       </c>
       <c r="F22">
-        <v>2.617924616029086</v>
+        <v>2.581426729143487</v>
       </c>
       <c r="G22">
-        <v>0.9852998730616775</v>
+        <v>0.8482466815216156</v>
       </c>
       <c r="H22">
-        <v>0.9830261693458908</v>
+        <v>0.5343969191825551</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06846152960196639</v>
+        <v>0.02611329701166376</v>
       </c>
       <c r="K22">
-        <v>0.5539186832099858</v>
+        <v>1.662579522588601</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5113145199879483</v>
+        <v>1.028051233421998</v>
       </c>
       <c r="N22">
-        <v>1.862533207687907</v>
+        <v>0.7242283821614706</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5745304984561415</v>
+        <v>1.570924430761295</v>
       </c>
       <c r="C23">
-        <v>0.05404335305323116</v>
+        <v>0.1843230822882163</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4147125115637991</v>
+        <v>0.5151156132509911</v>
       </c>
       <c r="F23">
-        <v>2.605017829492809</v>
+        <v>2.50449660399218</v>
       </c>
       <c r="G23">
-        <v>0.9832829287117875</v>
+        <v>0.8289237536752694</v>
       </c>
       <c r="H23">
-        <v>0.9838283009168407</v>
+        <v>0.5285325326140224</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06870349471851256</v>
+        <v>0.02669889435261608</v>
       </c>
       <c r="K23">
-        <v>0.5365993494510519</v>
+        <v>1.598760932126112</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5018279948675683</v>
+        <v>0.9891827243978426</v>
       </c>
       <c r="N23">
-        <v>1.870125851949069</v>
+        <v>0.7426046291098203</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5112368419228801</v>
+        <v>1.336407821147276</v>
       </c>
       <c r="C24">
-        <v>0.04655989469465283</v>
+        <v>0.1580903321582667</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3998511959133069</v>
+        <v>0.4449277905899223</v>
       </c>
       <c r="F24">
-        <v>2.558463661564943</v>
+        <v>2.222278806667035</v>
       </c>
       <c r="G24">
-        <v>0.9767004675605051</v>
+        <v>0.7601986423893123</v>
       </c>
       <c r="H24">
-        <v>0.9876294406647759</v>
+        <v>0.5086635413696285</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06965654889823503</v>
+        <v>0.02900711984403159</v>
       </c>
       <c r="K24">
-        <v>0.4711874102341369</v>
+        <v>1.359684750523229</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.466246011201541</v>
+        <v>0.8439740256631296</v>
       </c>
       <c r="N24">
-        <v>1.900032417471561</v>
+        <v>0.8155295996156084</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.443547576179725</v>
+        <v>1.088047620094784</v>
       </c>
       <c r="C25">
-        <v>0.03845623725362657</v>
+        <v>0.1302221310049703</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3844615036858841</v>
+        <v>0.3713518258298407</v>
       </c>
       <c r="F25">
-        <v>2.513215630703058</v>
+        <v>1.93466538715883</v>
       </c>
       <c r="G25">
-        <v>0.9718473874011408</v>
+        <v>0.6943531166212722</v>
       </c>
       <c r="H25">
-        <v>0.9933587932158474</v>
+        <v>0.4916771781164186</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07076283122657223</v>
+        <v>0.03167688730858664</v>
       </c>
       <c r="K25">
-        <v>0.4010265350616748</v>
+        <v>1.106276354059958</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4286098999140151</v>
+        <v>0.6908518962122798</v>
       </c>
       <c r="N25">
-        <v>1.934743502863377</v>
+        <v>0.9007178327039256</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9081028390627921</v>
+        <v>2.641168832196854</v>
       </c>
       <c r="C2">
-        <v>0.109945115106612</v>
+        <v>0.5779550490341592</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3186317839818074</v>
+        <v>0.06993383717975632</v>
       </c>
       <c r="F2">
-        <v>1.734835642521389</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6518672088784285</v>
+        <v>0.1545477428790818</v>
       </c>
       <c r="H2">
-        <v>0.482487306528256</v>
+        <v>0.001063953008682728</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0006703996610930574</v>
       </c>
       <c r="J2">
-        <v>0.03378608666840943</v>
+        <v>0.1865716254762475</v>
       </c>
       <c r="K2">
-        <v>0.9224709299443248</v>
+        <v>0.1970761557352985</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5804121555097836</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9685424019432567</v>
+        <v>0.1722434578698042</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.438352970270131</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.6671813786390146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7875101048083764</v>
+        <v>2.304015643435889</v>
       </c>
       <c r="C3">
-        <v>0.09629854338805899</v>
+        <v>0.5316978328939115</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2836395342172011</v>
+        <v>0.0696549495699138</v>
       </c>
       <c r="F3">
-        <v>1.605730816445799</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.6263072418928886</v>
+        <v>0.1556497112843545</v>
       </c>
       <c r="H3">
-        <v>0.4781015105454856</v>
+        <v>0.0018761694325794</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001086537465052828</v>
       </c>
       <c r="J3">
-        <v>0.0352999592530292</v>
+        <v>0.1917596763176128</v>
       </c>
       <c r="K3">
-        <v>0.799158957664531</v>
+        <v>0.2092291693004737</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5066835969951811</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.017459916096769</v>
+        <v>0.1555860994379188</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3824847342757351</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6801063799838474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7139957375139545</v>
+        <v>2.096471727440473</v>
       </c>
       <c r="C4">
-        <v>0.0879499552404468</v>
+        <v>0.5034798250629251</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2624664548722535</v>
+        <v>0.0694777548791306</v>
       </c>
       <c r="F4">
-        <v>1.529238925459936</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6120547644970316</v>
+        <v>0.1567107108946644</v>
       </c>
       <c r="H4">
-        <v>0.4762487322290525</v>
+        <v>0.002511031298391475</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001498436746544041</v>
       </c>
       <c r="J4">
-        <v>0.03626961065432521</v>
+        <v>0.1952150610540535</v>
       </c>
       <c r="K4">
-        <v>0.7239205210126016</v>
+        <v>0.2170691846129356</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4618694143374853</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048881842266191</v>
+        <v>0.1453800448578662</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3481282333460669</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.6894155860801376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.68415236811299</v>
+        <v>2.011708885208236</v>
       </c>
       <c r="C5">
-        <v>0.08455325709334716</v>
+        <v>0.4927218966097655</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2539098240908899</v>
+        <v>0.06938796417929172</v>
       </c>
       <c r="F5">
-        <v>1.498719912846497</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6065879390398266</v>
+        <v>0.156951169268023</v>
       </c>
       <c r="H5">
-        <v>0.4756954296103402</v>
+        <v>0.002803988636149668</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001774830146016981</v>
       </c>
       <c r="J5">
-        <v>0.03667462466104521</v>
+        <v>0.1965334765584181</v>
       </c>
       <c r="K5">
-        <v>0.6933604007809038</v>
+        <v>0.2202229561612752</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4437087669733302</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.062025249631859</v>
+        <v>0.1412793913393955</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3341492134294555</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.6926124983631183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6792032716084009</v>
+        <v>1.997567668875718</v>
       </c>
       <c r="C6">
-        <v>0.08398950250624182</v>
+        <v>0.4917952816782929</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2524931290431809</v>
+        <v>0.06935359017624379</v>
       </c>
       <c r="F6">
-        <v>1.493690320689424</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6057001833062401</v>
+        <v>0.1566498105699843</v>
       </c>
       <c r="H6">
-        <v>0.4756154690220313</v>
+        <v>0.002856568429400352</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001917198978812706</v>
       </c>
       <c r="J6">
-        <v>0.03674246714079121</v>
+        <v>0.1965663342801243</v>
       </c>
       <c r="K6">
-        <v>0.6882914186896159</v>
+        <v>0.2205902980752028</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4406989690382659</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.064227881556345</v>
+        <v>0.1406649027630991</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3318716667219732</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.692029739715565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7135928207233917</v>
+        <v>2.095170563221131</v>
       </c>
       <c r="C7">
-        <v>0.08790412709609541</v>
+        <v>0.5056851821013311</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2623507762716386</v>
+        <v>0.06942468340771457</v>
       </c>
       <c r="F7">
-        <v>1.52882475506712</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6119796828308353</v>
+        <v>0.1557679566682317</v>
       </c>
       <c r="H7">
-        <v>0.476240465644068</v>
+        <v>0.002519833094064061</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001744152914087138</v>
       </c>
       <c r="J7">
-        <v>0.03627503311590852</v>
+        <v>0.194715615920277</v>
       </c>
       <c r="K7">
-        <v>0.7235079958869761</v>
+        <v>0.2166737454197749</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4616240992091107</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.04905774005486</v>
+        <v>0.1455062439020836</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3480616466495121</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.6863692218051654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8664006598371827</v>
+        <v>2.524811279343623</v>
       </c>
       <c r="C8">
-        <v>0.1052320568150265</v>
+        <v>0.5651223556259026</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3064973093901742</v>
+        <v>0.06977491067454986</v>
       </c>
       <c r="F8">
-        <v>1.689714495587353</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.6427417588823658</v>
+        <v>0.1536035546884733</v>
       </c>
       <c r="H8">
-        <v>0.4807948040709249</v>
+        <v>0.001319122727723387</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001071371481311978</v>
       </c>
       <c r="J8">
-        <v>0.03429960689417966</v>
+        <v>0.1876291225242639</v>
       </c>
       <c r="K8">
-        <v>0.8798421476566034</v>
+        <v>0.2006317164465781</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5548879140456719</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9851152902265703</v>
+        <v>0.1667385206375158</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4192612055619378</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.6672997716384543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.171188681939469</v>
+        <v>3.363780989821919</v>
       </c>
       <c r="C9">
-        <v>0.1395640394402449</v>
+        <v>0.6790310712955261</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3958861639419382</v>
+        <v>0.07050478830500961</v>
       </c>
       <c r="F9">
-        <v>2.029534969708152</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.7155303694217707</v>
+        <v>0.1542950595691437</v>
       </c>
       <c r="H9">
-        <v>0.4968517543671993</v>
+        <v>0.0001166043898728208</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007148211887573197</v>
       </c>
       <c r="J9">
-        <v>0.03075457190066277</v>
+        <v>0.1768713433196538</v>
       </c>
       <c r="K9">
-        <v>1.191138285194455</v>
+        <v>0.17303732296471</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7420284095799872</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8711972241566066</v>
+        <v>0.2082663675342218</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.558324401988024</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.6468885582325044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.399646722438575</v>
+        <v>3.983861427966019</v>
       </c>
       <c r="C10">
-        <v>0.1651704546176092</v>
+        <v>0.7742649422618513</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4637913785217478</v>
+        <v>0.07075955996353733</v>
       </c>
       <c r="F10">
-        <v>2.297430282875169</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.7781432535435329</v>
+        <v>0.1521942114135726</v>
       </c>
       <c r="H10">
-        <v>0.5136810671621532</v>
+        <v>0.0002211277093064901</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001499517221110303</v>
       </c>
       <c r="J10">
-        <v>0.02836587327848683</v>
+        <v>0.1678545721738161</v>
       </c>
       <c r="K10">
-        <v>1.424169770960475</v>
+        <v>0.1530555249326637</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8830749863740621</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7951964486824323</v>
+        <v>0.2277228720241169</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.653293672733966</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.6239958575548741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.504901752986683</v>
+        <v>4.314809158771652</v>
       </c>
       <c r="C11">
-        <v>0.1769438724315791</v>
+        <v>0.9069901596157592</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4952926235997666</v>
+        <v>0.07591939783882484</v>
       </c>
       <c r="F11">
-        <v>2.424087743718346</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.8089834454731317</v>
+        <v>0.1149851886698414</v>
       </c>
       <c r="H11">
-        <v>0.5225968049210223</v>
+        <v>0.01877976327444486</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002324101493627495</v>
       </c>
       <c r="J11">
-        <v>0.02732982791473448</v>
+        <v>0.1443501902690798</v>
       </c>
       <c r="K11">
-        <v>1.531470727997686</v>
+        <v>0.1347599203380584</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9482467218800039</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7624627316295083</v>
+        <v>0.1501880341566704</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6345678553617233</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.4960674303807053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.544980611696843</v>
+        <v>4.465639931596741</v>
       </c>
       <c r="C12">
-        <v>0.1814238800771051</v>
+        <v>1.002702250255794</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.507320449636552</v>
+        <v>0.08981183783699187</v>
       </c>
       <c r="F12">
-        <v>2.472813548541694</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.8210347105034828</v>
+        <v>0.08904257551875716</v>
       </c>
       <c r="H12">
-        <v>0.5261693845658328</v>
+        <v>0.05743284202483068</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002416929400241408</v>
       </c>
       <c r="J12">
-        <v>0.02694513131605447</v>
+        <v>0.1287599366621066</v>
       </c>
       <c r="K12">
-        <v>1.572320376657188</v>
+        <v>0.1295957466647595</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9730917622533539</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7503475956754606</v>
+        <v>0.0964665082115701</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5987426962738027</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.40847942025745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.536338574782775</v>
+        <v>4.484876407127331</v>
       </c>
       <c r="C13">
-        <v>0.1804580037860433</v>
+        <v>1.07812171979316</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5047254515127335</v>
+        <v>0.1107649929006449</v>
       </c>
       <c r="F13">
-        <v>2.462284368369822</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.8184221079470149</v>
+        <v>0.06852999300847529</v>
       </c>
       <c r="H13">
-        <v>0.5253909754975012</v>
+        <v>0.1131463182270664</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002269391700790102</v>
       </c>
       <c r="J13">
-        <v>0.02702763717500556</v>
+        <v>0.1173842814295014</v>
       </c>
       <c r="K13">
-        <v>1.563512494782373</v>
+        <v>0.1331025625886459</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9677332078654786</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7529440677085972</v>
+        <v>0.05827213613747162</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5481347581954807</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.3411402374352406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.50819445320397</v>
+        <v>4.438539187848789</v>
       </c>
       <c r="C14">
-        <v>0.1773119886041172</v>
+        <v>1.122965060910047</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4962801088580164</v>
+        <v>0.129684608017147</v>
       </c>
       <c r="F14">
-        <v>2.428080696297656</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.8099672360414587</v>
+        <v>0.05700798418873276</v>
       </c>
       <c r="H14">
-        <v>0.5228866957087916</v>
+        <v>0.1624650592979719</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002144292889403765</v>
       </c>
       <c r="J14">
-        <v>0.02729802359079603</v>
+        <v>0.1114677245182669</v>
       </c>
       <c r="K14">
-        <v>1.534826914607436</v>
+        <v>0.1400960966640064</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9502872872740156</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7614602962711245</v>
+        <v>0.04087351693491215</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5064342831478683</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.3042607541217279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.490985090071376</v>
+        <v>4.398703911838936</v>
       </c>
       <c r="C15">
-        <v>0.1753879013660935</v>
+        <v>1.129656003973082</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4911203313900785</v>
+        <v>0.1345650595130756</v>
       </c>
       <c r="F15">
-        <v>2.407231693333827</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.8048379777774528</v>
+        <v>0.05471789033660457</v>
       </c>
       <c r="H15">
-        <v>0.5213788000557713</v>
+        <v>0.1749627257725592</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002175559694365781</v>
       </c>
       <c r="J15">
-        <v>0.02746464804615067</v>
+        <v>0.1106110710124639</v>
       </c>
       <c r="K15">
-        <v>1.517285409358067</v>
+        <v>0.1429927963564648</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9396234137110824</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7667137453380768</v>
+        <v>0.03788175534845806</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4932353660230291</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.2975766462788201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.392797300073369</v>
+        <v>4.125542430333667</v>
       </c>
       <c r="C16">
-        <v>0.1644038569738626</v>
+        <v>1.071784603913329</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4617459209580446</v>
+        <v>0.1293494667974926</v>
       </c>
       <c r="F16">
-        <v>2.289255543095592</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.7761780324144354</v>
+        <v>0.05880125619404453</v>
       </c>
       <c r="H16">
-        <v>0.5131250271927286</v>
+        <v>0.1621790718098168</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001909269435312666</v>
       </c>
       <c r="J16">
-        <v>0.02843462900198634</v>
+        <v>0.1161107975287727</v>
       </c>
       <c r="K16">
-        <v>1.417186030484686</v>
+        <v>0.1494421923395439</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8788379032445306</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.79737401721707</v>
+        <v>0.03829330443760881</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4641000169332017</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.3175641102419533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.332923091703151</v>
+        <v>3.941270623848595</v>
       </c>
       <c r="C17">
-        <v>0.1577000295652198</v>
+        <v>1.003666590666143</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4438897550277261</v>
+        <v>0.1146310589449513</v>
       </c>
       <c r="F17">
-        <v>2.218159016238133</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.7592229969123991</v>
+        <v>0.0678233323891817</v>
       </c>
       <c r="H17">
-        <v>0.5083947365443322</v>
+        <v>0.1243949607295605</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001821225250494329</v>
       </c>
       <c r="J17">
-        <v>0.02904288136431932</v>
+        <v>0.1234116353538219</v>
       </c>
       <c r="K17">
-        <v>1.356130950994213</v>
+        <v>0.1504473476604336</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8418206464898006</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8166651218790051</v>
+        <v>0.04627671677881651</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4636601123113451</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.351870822111394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.298608116563656</v>
+        <v>3.813011344911558</v>
       </c>
       <c r="C18">
-        <v>0.1538556832307449</v>
+        <v>0.9195501749376547</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.433676131787621</v>
+        <v>0.09440445073954784</v>
       </c>
       <c r="F18">
-        <v>2.177712263150283</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.7496906037235505</v>
+        <v>0.0843439119774807</v>
       </c>
       <c r="H18">
-        <v>0.5057916129030247</v>
+        <v>0.07157590800056113</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001556449378577796</v>
       </c>
       <c r="J18">
-        <v>0.0293974702107791</v>
+        <v>0.1341390725464642</v>
       </c>
       <c r="K18">
-        <v>1.321133449205774</v>
+        <v>0.1493319469315919</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8206229169616961</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8279329611625457</v>
+        <v>0.06963921609429491</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4881120597782882</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.4093069832113372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.287009920343337</v>
+        <v>3.73939160851279</v>
       </c>
       <c r="C19">
-        <v>0.1525559244307431</v>
+        <v>0.8388221268395455</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4302274005938358</v>
+        <v>0.07799151168610408</v>
       </c>
       <c r="F19">
-        <v>2.164092135359624</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.7464998482200684</v>
+        <v>0.1074867748023678</v>
       </c>
       <c r="H19">
-        <v>0.5049299979123845</v>
+        <v>0.02631235170585455</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001685563535936296</v>
       </c>
       <c r="J19">
-        <v>0.02951833131619175</v>
+        <v>0.1475124753748389</v>
       </c>
       <c r="K19">
-        <v>1.309303562203553</v>
+        <v>0.1506732227315983</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8134612027143362</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8317771542141372</v>
+        <v>0.1159006907051392</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5318685036325235</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.486371718115862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.339283854718929</v>
+        <v>3.820843856358408</v>
       </c>
       <c r="C20">
-        <v>0.1584124456248759</v>
+        <v>0.7572826421762215</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4457846210376317</v>
+        <v>0.07056112626673661</v>
       </c>
       <c r="F20">
-        <v>2.225680674775745</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.7610049160849144</v>
+        <v>0.1495635653742724</v>
       </c>
       <c r="H20">
-        <v>0.5088860053897974</v>
+        <v>0.0001199630102024507</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001979745431134106</v>
       </c>
       <c r="J20">
-        <v>0.02897763899250672</v>
+        <v>0.1684968503685553</v>
       </c>
       <c r="K20">
-        <v>1.362617756553533</v>
+        <v>0.1569620709644814</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8457513623378645</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8145936275527106</v>
+        <v>0.2226990472247365</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6284515467277174</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.6196484890691636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.516454812236589</v>
+        <v>4.28785354072437</v>
       </c>
       <c r="C21">
-        <v>0.1782354301612514</v>
+        <v>0.8152106693382848</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.498757930473154</v>
+        <v>0.07116345406789532</v>
       </c>
       <c r="F21">
-        <v>2.438105800579208</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.8124402369636528</v>
+        <v>0.1562605168614084</v>
       </c>
       <c r="H21">
-        <v>0.5236168060331892</v>
+        <v>0.0002406666055592144</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002775371184237763</v>
       </c>
       <c r="J21">
-        <v>0.0272183944286315</v>
+        <v>0.1660780398044182</v>
       </c>
       <c r="K21">
-        <v>1.54324641182825</v>
+        <v>0.1450895574286868</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9554068990467286</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7589511296795095</v>
+        <v>0.255176776389348</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.712348683835117</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.6291152739746479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.633550615712096</v>
+        <v>4.595986923111695</v>
       </c>
       <c r="C22">
-        <v>0.1913191804090246</v>
+        <v>0.8547835378388697</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5339619253292227</v>
+        <v>0.07148325160220975</v>
       </c>
       <c r="F22">
-        <v>2.581426729143487</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.8482466815216156</v>
+        <v>0.1600777829619062</v>
       </c>
       <c r="H22">
-        <v>0.5343969191825551</v>
+        <v>0.0005798346290826206</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003200064231700495</v>
       </c>
       <c r="J22">
-        <v>0.02611329701166376</v>
+        <v>0.1642397620945388</v>
       </c>
       <c r="K22">
-        <v>1.662579522588601</v>
+        <v>0.1374230501820222</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.028051233421998</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7242283821614706</v>
+        <v>0.2704218271748431</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.763401757509385</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.6335700928161145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.570924430761295</v>
+        <v>4.431734756934191</v>
       </c>
       <c r="C23">
-        <v>0.1843230822882163</v>
+        <v>0.83069026736419</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5151156132509911</v>
+        <v>0.0713575857485505</v>
       </c>
       <c r="F23">
-        <v>2.50449660399218</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.8289237536752694</v>
+        <v>0.1590616773386344</v>
       </c>
       <c r="H23">
-        <v>0.5285325326140224</v>
+        <v>0.0003827200751960191</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002665414515110598</v>
       </c>
       <c r="J23">
-        <v>0.02669889435261608</v>
+        <v>0.1657629456532916</v>
       </c>
       <c r="K23">
-        <v>1.598760932126112</v>
+        <v>0.1418936125707306</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9891827243978426</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7426046291098203</v>
+        <v>0.2620530288721454</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7360059605224336</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.6344933617196062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.336407821147276</v>
+        <v>3.809169559361635</v>
       </c>
       <c r="C24">
-        <v>0.1580903321582667</v>
+        <v>0.7446479703029354</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4449277905899223</v>
+        <v>0.07081391192149561</v>
       </c>
       <c r="F24">
-        <v>2.222278806667035</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.7601986423893123</v>
+        <v>0.1546114504637401</v>
       </c>
       <c r="H24">
-        <v>0.5086635413696285</v>
+        <v>4.220052563952414E-06</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001507192747773445</v>
       </c>
       <c r="J24">
-        <v>0.02900711984403159</v>
+        <v>0.1712872531174057</v>
       </c>
       <c r="K24">
-        <v>1.359684750523229</v>
+        <v>0.1590678889743957</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8439740256631296</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8155295996156084</v>
+        <v>0.2308365029863211</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6325370590502715</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.6361904662046669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.088047620094784</v>
+        <v>3.136871149903527</v>
       </c>
       <c r="C25">
-        <v>0.1302221310049703</v>
+        <v>0.6524162389193293</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3713518258298407</v>
+        <v>0.0702318335956611</v>
       </c>
       <c r="F25">
-        <v>1.93466538715883</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6943531166212722</v>
+        <v>0.1520552888174791</v>
       </c>
       <c r="H25">
-        <v>0.4916771781164186</v>
+        <v>0.0003094354328977422</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001070662130618238</v>
       </c>
       <c r="J25">
-        <v>0.03167688730858664</v>
+        <v>0.1786279508857049</v>
       </c>
       <c r="K25">
-        <v>1.106276354059958</v>
+        <v>0.1794422547832744</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6908518962122798</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9007178327039256</v>
+        <v>0.1973395356897001</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5209485430463872</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.6456476592173743</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_62/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.641168832196854</v>
+        <v>2.646339162340155</v>
       </c>
       <c r="C2">
-        <v>0.5779550490341592</v>
+        <v>0.5633017690544193</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06993383717975632</v>
+        <v>0.06838975969828295</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.1545477428790818</v>
+        <v>0.1344108860409889</v>
       </c>
       <c r="H2">
-        <v>0.001063953008682728</v>
+        <v>0.000834976620564587</v>
       </c>
       <c r="I2">
-        <v>0.0006703996610930574</v>
+        <v>0.0006139764952504123</v>
       </c>
       <c r="J2">
-        <v>0.1865716254762475</v>
+        <v>0.2196871789054669</v>
       </c>
       <c r="K2">
-        <v>0.1970761557352985</v>
+        <v>0.1886438622609345</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1053178980173932</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04460512306878428</v>
       </c>
       <c r="N2">
-        <v>0.1722434578698042</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.438352970270131</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1755934084963755</v>
       </c>
       <c r="Q2">
-        <v>0.6671813786390146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4390478063149246</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.6527859901659099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.304015643435889</v>
+        <v>2.309817743969916</v>
       </c>
       <c r="C3">
-        <v>0.5316978328939115</v>
+        <v>0.5121113745635171</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0696549495699138</v>
+        <v>0.06825955511185039</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.1556497112843545</v>
+        <v>0.1361887809827067</v>
       </c>
       <c r="H3">
-        <v>0.0018761694325794</v>
+        <v>0.001511017827060812</v>
       </c>
       <c r="I3">
-        <v>0.001086537465052828</v>
+        <v>0.0008457060283624251</v>
       </c>
       <c r="J3">
-        <v>0.1917596763176128</v>
+        <v>0.2235245701376911</v>
       </c>
       <c r="K3">
-        <v>0.2092291693004737</v>
+        <v>0.200001285069705</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1106134215300321</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04921425075395125</v>
       </c>
       <c r="N3">
-        <v>0.1555860994379188</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3824847342757351</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1590039447935041</v>
       </c>
       <c r="Q3">
-        <v>0.6801063799838474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3829568205906355</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6671618122594936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.096471727440473</v>
+        <v>2.102599361977411</v>
       </c>
       <c r="C4">
-        <v>0.5034798250629251</v>
+        <v>0.4810031610087151</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0694777548791306</v>
+        <v>0.06817833778605753</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1567107108946644</v>
+        <v>0.1376506623274523</v>
       </c>
       <c r="H4">
-        <v>0.002511031298391475</v>
+        <v>0.00204402020915756</v>
       </c>
       <c r="I4">
-        <v>0.001498436746544041</v>
+        <v>0.001121915365081882</v>
       </c>
       <c r="J4">
-        <v>0.1952150610540535</v>
+        <v>0.2260112687988212</v>
       </c>
       <c r="K4">
-        <v>0.2170691846129356</v>
+        <v>0.2073041674212206</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1141920286549647</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05247033659653488</v>
       </c>
       <c r="N4">
-        <v>0.1453800448578662</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3481282333460669</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1488554424669388</v>
       </c>
       <c r="Q4">
-        <v>0.6894155860801376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3484576226075689</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6770817541212821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.011708885208236</v>
+        <v>2.017955088432473</v>
       </c>
       <c r="C5">
-        <v>0.4927218966097655</v>
+        <v>0.4690802800602114</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06938796417929172</v>
+        <v>0.06812923590112219</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.156951169268023</v>
+        <v>0.1380621237303075</v>
       </c>
       <c r="H5">
-        <v>0.002803988636149668</v>
+        <v>0.00229093300494454</v>
       </c>
       <c r="I5">
-        <v>0.001774830146016981</v>
+        <v>0.001350074999133533</v>
       </c>
       <c r="J5">
-        <v>0.1965334765584181</v>
+        <v>0.2268970055011508</v>
       </c>
       <c r="K5">
-        <v>0.2202229561612752</v>
+        <v>0.2102290501778628</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1156294929602417</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05390556426637994</v>
       </c>
       <c r="N5">
-        <v>0.1412793913393955</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3341492134294555</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1447801531051311</v>
       </c>
       <c r="Q5">
-        <v>0.6926124983631183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3344181386831906</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6804809598409847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.997567668875718</v>
+        <v>2.003832512094846</v>
       </c>
       <c r="C6">
-        <v>0.4917952816782929</v>
+        <v>0.4679353545394349</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06935359017624379</v>
+        <v>0.06810217334708318</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.1566498105699843</v>
+        <v>0.1378033137738619</v>
       </c>
       <c r="H6">
-        <v>0.002856568429400352</v>
+        <v>0.00233540638199764</v>
       </c>
       <c r="I6">
-        <v>0.001917198978812706</v>
+        <v>0.001500803292583619</v>
       </c>
       <c r="J6">
-        <v>0.1965663342801243</v>
+        <v>0.2268511977378154</v>
       </c>
       <c r="K6">
-        <v>0.2205902980752028</v>
+        <v>0.2105601315368766</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1157486749156895</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05415301384597782</v>
       </c>
       <c r="N6">
-        <v>0.1406649027630991</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.3318716667219732</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1441674425393273</v>
       </c>
       <c r="Q6">
-        <v>0.692029739715565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3321290684104383</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6799550966689338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.095170563221131</v>
+        <v>2.101284835059175</v>
       </c>
       <c r="C7">
-        <v>0.5056851821013311</v>
+        <v>0.4827079173334425</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06942468340771457</v>
+        <v>0.06811202102525715</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1557679566682317</v>
+        <v>0.1381365655440376</v>
       </c>
       <c r="H7">
-        <v>0.002519833094064061</v>
+        <v>0.002054352085679056</v>
       </c>
       <c r="I7">
-        <v>0.001744152914087138</v>
+        <v>0.001412040635281109</v>
       </c>
       <c r="J7">
-        <v>0.194715615920277</v>
+        <v>0.2231530239972095</v>
       </c>
       <c r="K7">
-        <v>0.2166737454197749</v>
+        <v>0.2067693353258031</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1137753976279932</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05248575149212109</v>
       </c>
       <c r="N7">
-        <v>0.1455062439020836</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3480616466495121</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.148935166618358</v>
       </c>
       <c r="Q7">
-        <v>0.6863692218051654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3483667496697294</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.672411734715844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.524811279343623</v>
+        <v>2.5301644593481</v>
       </c>
       <c r="C8">
-        <v>0.5651223556259026</v>
+        <v>0.5472796140568335</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06977491067454986</v>
+        <v>0.06823745429503222</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.1536035546884733</v>
+        <v>0.1383987774613331</v>
       </c>
       <c r="H8">
-        <v>0.001319122727723387</v>
+        <v>0.001052412644824863</v>
       </c>
       <c r="I8">
-        <v>0.001071371481311978</v>
+        <v>0.001013449230231167</v>
       </c>
       <c r="J8">
-        <v>0.1876291225242639</v>
+        <v>0.2128520435097521</v>
       </c>
       <c r="K8">
-        <v>0.2006317164465781</v>
+        <v>0.1915223922002487</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1064406061635887</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04599752494968636</v>
       </c>
       <c r="N8">
-        <v>0.1667385206375158</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4192612055619378</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1699696223880807</v>
       </c>
       <c r="Q8">
-        <v>0.6672997716384543</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4198084290227229</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6480379308048043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.363780989821919</v>
+        <v>3.367108150763045</v>
       </c>
       <c r="C9">
-        <v>0.6790310712955261</v>
+        <v>0.6739480649101779</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07050478830500961</v>
+        <v>0.06861297160825913</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.1542950595691437</v>
+        <v>0.1385564259715295</v>
       </c>
       <c r="H9">
-        <v>0.0001166043898728208</v>
+        <v>7.495517729372292E-05</v>
       </c>
       <c r="I9">
-        <v>0.0007148211887573197</v>
+        <v>0.0009227617628146945</v>
       </c>
       <c r="J9">
-        <v>0.1768713433196538</v>
+        <v>0.2027275033433469</v>
       </c>
       <c r="K9">
-        <v>0.17303732296471</v>
+        <v>0.1655623875636474</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0955136456465504</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03679735498877923</v>
       </c>
       <c r="N9">
-        <v>0.2082663675342218</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.558324401988024</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2113853326804147</v>
       </c>
       <c r="Q9">
-        <v>0.6468885582325044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5593609142880425</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.6208785925164477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.983861427966019</v>
+        <v>3.985208558359261</v>
       </c>
       <c r="C10">
-        <v>0.7742649422618513</v>
+        <v>0.7755518668034256</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07075955996353733</v>
+        <v>0.06864677761287652</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.1521942114135726</v>
+        <v>0.1448903739426939</v>
       </c>
       <c r="H10">
-        <v>0.0002211277093064901</v>
+        <v>0.0002312083017250721</v>
       </c>
       <c r="I10">
-        <v>0.001499517221110303</v>
+        <v>0.001777400015645192</v>
       </c>
       <c r="J10">
-        <v>0.1678545721738161</v>
+        <v>0.1826505006257868</v>
       </c>
       <c r="K10">
-        <v>0.1530555249326637</v>
+        <v>0.1463998046427433</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08849232939091445</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03134893066817401</v>
       </c>
       <c r="N10">
-        <v>0.2277228720241169</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.653293672733966</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2304448760502567</v>
       </c>
       <c r="Q10">
-        <v>0.6239958575548741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.654423609339652</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.5845263902219386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.314809158771652</v>
+        <v>4.315715578263053</v>
       </c>
       <c r="C11">
-        <v>0.9069901596157592</v>
+        <v>0.8951019115776262</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07591939783882484</v>
+        <v>0.07387346796481165</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.1149851886698414</v>
+        <v>0.1274283081033332</v>
       </c>
       <c r="H11">
-        <v>0.01877976327444486</v>
+        <v>0.01878140833570185</v>
       </c>
       <c r="I11">
-        <v>0.002324101493627495</v>
+        <v>0.002672160543117919</v>
       </c>
       <c r="J11">
-        <v>0.1443501902690798</v>
+        <v>0.1495696550577552</v>
       </c>
       <c r="K11">
-        <v>0.1347599203380584</v>
+        <v>0.1316825271834785</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08457135937186511</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02538199214349057</v>
       </c>
       <c r="N11">
-        <v>0.1501880341566704</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6345678553617233</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1513410893527904</v>
       </c>
       <c r="Q11">
-        <v>0.4960674303807053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6348770410053888</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.456450218493309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.465639931596741</v>
+        <v>4.466666611216795</v>
       </c>
       <c r="C12">
-        <v>1.002702250255794</v>
+        <v>0.9778098015364947</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08981183783699187</v>
+        <v>0.08730733382675915</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.08904257551875716</v>
+        <v>0.1084345743071466</v>
       </c>
       <c r="H12">
-        <v>0.05743284202483068</v>
+        <v>0.05743224200305974</v>
       </c>
       <c r="I12">
-        <v>0.002416929400241408</v>
+        <v>0.002746176942537204</v>
       </c>
       <c r="J12">
-        <v>0.1287599366621066</v>
+        <v>0.1385967994508053</v>
       </c>
       <c r="K12">
-        <v>0.1295957466647595</v>
+        <v>0.1290799195907439</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08510511894675155</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02334133724592546</v>
       </c>
       <c r="N12">
-        <v>0.0964665082115701</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5987426962738027</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09690227811067587</v>
       </c>
       <c r="Q12">
-        <v>0.40847942025745</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5984604932647031</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.3769511848550025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.484876407127331</v>
+        <v>4.486529765868681</v>
       </c>
       <c r="C13">
-        <v>1.07812171979316</v>
+        <v>1.041178018310006</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1107649929006449</v>
+        <v>0.1075202261503172</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.06852999300847529</v>
+        <v>0.08397348273750893</v>
       </c>
       <c r="H13">
-        <v>0.1131463182270664</v>
+        <v>0.113146372555903</v>
       </c>
       <c r="I13">
-        <v>0.002269391700790102</v>
+        <v>0.002598934188411839</v>
       </c>
       <c r="J13">
-        <v>0.1173842814295014</v>
+        <v>0.1362844012896227</v>
       </c>
       <c r="K13">
-        <v>0.1331025625886459</v>
+        <v>0.1334912114900799</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08748430981165889</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02403406890510595</v>
       </c>
       <c r="N13">
-        <v>0.05827213613747162</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5481347581954807</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05857517723077166</v>
       </c>
       <c r="Q13">
-        <v>0.3411402374352406</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5474410162582188</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.3241099363372228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.438539187848789</v>
+        <v>4.440849464003634</v>
       </c>
       <c r="C14">
-        <v>1.122965060910047</v>
+        <v>1.077919579584858</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.129684608017147</v>
+        <v>0.1257705764357908</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.05700798418873276</v>
+        <v>0.06622709723894005</v>
       </c>
       <c r="H14">
-        <v>0.1624650592979719</v>
+        <v>0.1624641567803451</v>
       </c>
       <c r="I14">
-        <v>0.002144292889403765</v>
+        <v>0.002495714482737554</v>
       </c>
       <c r="J14">
-        <v>0.1114677245182669</v>
+        <v>0.1364468361822909</v>
       </c>
       <c r="K14">
-        <v>0.1400960966640064</v>
+        <v>0.1397162632868234</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08972896991701518</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02599015344466604</v>
       </c>
       <c r="N14">
-        <v>0.04087351693491215</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5064342831478683</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04134636140480374</v>
       </c>
       <c r="Q14">
-        <v>0.3042607541217279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5055262127985429</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.297978531818579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.398703911838936</v>
+        <v>4.401280238699599</v>
       </c>
       <c r="C15">
-        <v>1.129656003973082</v>
+        <v>1.083014912974363</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1345650595130756</v>
+        <v>0.1305111535618195</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.05471789033660457</v>
+        <v>0.06121797560513542</v>
       </c>
       <c r="H15">
-        <v>0.1749627257725592</v>
+        <v>0.1749604129291953</v>
       </c>
       <c r="I15">
-        <v>0.002175559694365781</v>
+        <v>0.002557435699940491</v>
       </c>
       <c r="J15">
-        <v>0.1106110710124639</v>
+        <v>0.1371677180779911</v>
       </c>
       <c r="K15">
-        <v>0.1429927963564648</v>
+        <v>0.1420010675653511</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09028813923792889</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02688983669044287</v>
       </c>
       <c r="N15">
-        <v>0.03788175534845806</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4932353660230291</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03845339831215888</v>
       </c>
       <c r="Q15">
-        <v>0.2975766462788201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4923010656240265</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.2945303917957673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.125542430333667</v>
+        <v>4.12907973537375</v>
       </c>
       <c r="C16">
-        <v>1.071784603913329</v>
+        <v>1.029633961281178</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1293494667974926</v>
+        <v>0.1258242682658341</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.05880125619404453</v>
+        <v>0.05560280082772096</v>
       </c>
       <c r="H16">
-        <v>0.1621790718098168</v>
+        <v>0.1621569144634663</v>
       </c>
       <c r="I16">
-        <v>0.001909269435312666</v>
+        <v>0.00232908749310301</v>
       </c>
       <c r="J16">
-        <v>0.1161107975287727</v>
+        <v>0.1470612949112731</v>
       </c>
       <c r="K16">
-        <v>0.1494421923395439</v>
+        <v>0.1461008488401276</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08950757021701428</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02951681966402653</v>
       </c>
       <c r="N16">
-        <v>0.03829330443760881</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.4641000169332017</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03921067804325595</v>
       </c>
       <c r="Q16">
-        <v>0.3175641102419533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4633853573970939</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.322284738937725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.941270623848595</v>
+        <v>3.945145147073106</v>
       </c>
       <c r="C17">
-        <v>1.003666590666143</v>
+        <v>0.9683821936574191</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1146310589449513</v>
+        <v>0.1118022444118338</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0678233323891817</v>
+        <v>0.06052022606283103</v>
       </c>
       <c r="H17">
-        <v>0.1243949607295605</v>
+        <v>0.1243524512363905</v>
       </c>
       <c r="I17">
-        <v>0.001821225250494329</v>
+        <v>0.002251770507096573</v>
       </c>
       <c r="J17">
-        <v>0.1234116353538219</v>
+        <v>0.1571765314094353</v>
       </c>
       <c r="K17">
-        <v>0.1504473476604336</v>
+        <v>0.1466306569172993</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08844834333170226</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0303803180121589</v>
       </c>
       <c r="N17">
-        <v>0.04627671677881651</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4636601123113451</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04736246589910031</v>
       </c>
       <c r="Q17">
-        <v>0.351870822111394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.463200016571335</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.3579489262910442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.813011344911558</v>
+        <v>3.816782867281006</v>
       </c>
       <c r="C18">
-        <v>0.9195501749376547</v>
+        <v>0.8944274558790255</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09440445073954784</v>
+        <v>0.09235057010310044</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0843439119774807</v>
+        <v>0.07413632048382723</v>
       </c>
       <c r="H18">
-        <v>0.07157590800056113</v>
+        <v>0.0715250289857039</v>
       </c>
       <c r="I18">
-        <v>0.001556449378577796</v>
+        <v>0.001939678369461184</v>
       </c>
       <c r="J18">
-        <v>0.1341390725464642</v>
+        <v>0.1688795155796612</v>
       </c>
       <c r="K18">
-        <v>0.1493319469315919</v>
+        <v>0.1458116062676176</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08767956686861478</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03030351931935416</v>
       </c>
       <c r="N18">
-        <v>0.06963921609429491</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4881120597782882</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.0709454301020962</v>
       </c>
       <c r="Q18">
-        <v>0.4093069832113372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4880318986013634</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.4122043348249278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.73939160851279</v>
+        <v>3.742728036327321</v>
       </c>
       <c r="C19">
-        <v>0.8388221268395455</v>
+        <v>0.8249119920366752</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07799151168610408</v>
+        <v>0.0763836862765519</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.1074867748023678</v>
+        <v>0.09426734454630648</v>
       </c>
       <c r="H19">
-        <v>0.02631235170585455</v>
+        <v>0.02627223842340243</v>
       </c>
       <c r="I19">
-        <v>0.001685563535936296</v>
+        <v>0.002096120727617112</v>
       </c>
       <c r="J19">
-        <v>0.1475124753748389</v>
+        <v>0.1815056520136871</v>
       </c>
       <c r="K19">
-        <v>0.1506732227315983</v>
+        <v>0.146919344099135</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08816478976449771</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03067418435752906</v>
       </c>
       <c r="N19">
-        <v>0.1159006907051392</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5318685036325235</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1176897020066505</v>
       </c>
       <c r="Q19">
-        <v>0.486371718115862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5322741006218621</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.4812328549225455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.820843856358408</v>
+        <v>3.822823777180304</v>
       </c>
       <c r="C20">
-        <v>0.7572826421762215</v>
+        <v>0.7582795049062838</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07056112626673661</v>
+        <v>0.06856813573926268</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.1495635653742724</v>
+        <v>0.1350771917381763</v>
       </c>
       <c r="H20">
-        <v>0.0001199630102024507</v>
+        <v>0.0001247974384201989</v>
       </c>
       <c r="I20">
-        <v>0.001979745431134106</v>
+        <v>0.002414612040666064</v>
       </c>
       <c r="J20">
-        <v>0.1684968503685553</v>
+        <v>0.1932707740420554</v>
       </c>
       <c r="K20">
-        <v>0.1569620709644814</v>
+        <v>0.1506690823047623</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08994646348897839</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03242682892969784</v>
       </c>
       <c r="N20">
-        <v>0.2226990472247365</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6284515467277174</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2256316949089268</v>
       </c>
       <c r="Q20">
-        <v>0.6196484890691636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6296248926734407</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.5902656270752544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.28785354072437</v>
+        <v>4.287681874984912</v>
       </c>
       <c r="C21">
-        <v>0.8152106693382848</v>
+        <v>0.8149881416469213</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07116345406789532</v>
+        <v>0.06867458932516624</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.1562605168614084</v>
+        <v>0.1766494875461859</v>
       </c>
       <c r="H21">
-        <v>0.0002406666055592144</v>
+        <v>0.0002351907047046797</v>
       </c>
       <c r="I21">
-        <v>0.002775371184237763</v>
+        <v>0.003144721523531402</v>
       </c>
       <c r="J21">
-        <v>0.1660780398044182</v>
+        <v>0.153696341613152</v>
       </c>
       <c r="K21">
-        <v>0.1450895574286868</v>
+        <v>0.1369374579980818</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08550880188233684</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02878139179017758</v>
       </c>
       <c r="N21">
-        <v>0.255176776389348</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.712348683835117</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.257338462260023</v>
       </c>
       <c r="Q21">
-        <v>0.6291152739746479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7132633295151081</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.5556814809300903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.595986923111695</v>
+        <v>4.594315172529036</v>
       </c>
       <c r="C22">
-        <v>0.8547835378388697</v>
+        <v>0.8526294980247826</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07148325160220975</v>
+        <v>0.06872914791726209</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.1600777829619062</v>
+        <v>0.2092478613373032</v>
       </c>
       <c r="H22">
-        <v>0.0005798346290826206</v>
+        <v>0.0005294356225355457</v>
       </c>
       <c r="I22">
-        <v>0.003200064231700495</v>
+        <v>0.003411229187813447</v>
       </c>
       <c r="J22">
-        <v>0.1642397620945388</v>
+        <v>0.137108345128766</v>
       </c>
       <c r="K22">
-        <v>0.1374230501820222</v>
+        <v>0.1281464548361355</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08305232233308302</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02652527930667326</v>
       </c>
       <c r="N22">
-        <v>0.2704218271748431</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.763401757509385</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2719601204392177</v>
       </c>
       <c r="Q22">
-        <v>0.6335700928161145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7640484699791656</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.5297541644280983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.431734756934191</v>
+        <v>4.430905443257927</v>
       </c>
       <c r="C23">
-        <v>0.83069026736419</v>
+        <v>0.8307259131919125</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0713575857485505</v>
+        <v>0.06875979632752127</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.1590616773386344</v>
+        <v>0.1881531421840776</v>
       </c>
       <c r="H23">
-        <v>0.0003827200751960191</v>
+        <v>0.0003614957741717717</v>
       </c>
       <c r="I23">
-        <v>0.002665414515110598</v>
+        <v>0.002907037954400948</v>
       </c>
       <c r="J23">
-        <v>0.1657629456532916</v>
+        <v>0.1472094915088107</v>
       </c>
       <c r="K23">
-        <v>0.1418936125707306</v>
+        <v>0.1332867432963911</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08441514633339153</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02798638943660503</v>
       </c>
       <c r="N23">
-        <v>0.2620530288721454</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7360059605224336</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2640313987323424</v>
       </c>
       <c r="Q23">
-        <v>0.6344933617196062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7368623522935778</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.5504856937978673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.809169559361635</v>
+        <v>3.811106045707106</v>
       </c>
       <c r="C24">
-        <v>0.7446479703029354</v>
+        <v>0.7465471235215091</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07081391192149561</v>
+        <v>0.06875071565650342</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.1546114504637401</v>
+        <v>0.1393581978314415</v>
       </c>
       <c r="H24">
-        <v>4.220052563952414E-06</v>
+        <v>1.087327267690341E-05</v>
       </c>
       <c r="I24">
-        <v>0.001507192747773445</v>
+        <v>0.001842461577264309</v>
       </c>
       <c r="J24">
-        <v>0.1712872531174057</v>
+        <v>0.1960211071800657</v>
       </c>
       <c r="K24">
-        <v>0.1590678889743957</v>
+        <v>0.1523501381661534</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09055473176245732</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03308023765710466</v>
       </c>
       <c r="N24">
-        <v>0.2308365029863211</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6325370590502715</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2339086540934403</v>
       </c>
       <c r="Q24">
-        <v>0.6361904662046669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6337772079436874</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.6051456360328871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.136871149903527</v>
+        <v>3.140847849436057</v>
       </c>
       <c r="C25">
-        <v>0.6524162389193293</v>
+        <v>0.6443096920600624</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0702318335956611</v>
+        <v>0.06845899156417573</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1520552888174791</v>
+        <v>0.1345472183256575</v>
       </c>
       <c r="H25">
-        <v>0.0003094354328977422</v>
+        <v>0.0002236435764082501</v>
       </c>
       <c r="I25">
-        <v>0.001070662130618238</v>
+        <v>0.00131373252261735</v>
       </c>
       <c r="J25">
-        <v>0.1786279508857049</v>
+        <v>0.2075648712744709</v>
       </c>
       <c r="K25">
-        <v>0.1794422547832744</v>
+        <v>0.1718314051535885</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09796772835730216</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03878946177834974</v>
       </c>
       <c r="N25">
-        <v>0.1973395356897001</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5209485430463872</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2005203231793331</v>
       </c>
       <c r="Q25">
-        <v>0.6456476592173743</v>
+        <v>0.5218845832507952</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.6243944932013221</v>
       </c>
     </row>
   </sheetData>
